--- a/exercises/ex040.MF_choke.xlsx
+++ b/exercises/ex040.MF_choke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A359FB-6465-4CD7-BA13-67D7EDD0704B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EB3CDD-8432-4CFD-97D7-88ACD027350E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="2250" windowWidth="25665" windowHeight="17400" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choke" sheetId="118" r:id="rId1"/>
@@ -46,7 +46,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -408,8 +410,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -638,7 +640,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -705,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,37 +894,37 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.00494384765625</c:v>
+                  <c:v>2.0049285888671875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.55859375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.625</c:v>
+                  <c:v>4.6171875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.90625</c:v>
+                  <c:v>6.890625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.15625</c:v>
+                  <c:v>9.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.375</c:v>
+                  <c:v>11.328125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>21.8125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.9375</c:v>
+                  <c:v>31.375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.0625</c:v>
+                  <c:v>40.0625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.125</c:v>
+                  <c:v>55.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.25</c:v>
+                  <c:v>68.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,37 +1005,37 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.001020431518555</c:v>
+                  <c:v>10.001015663146973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.1025390625</c:v>
+                  <c:v>10.1019287109375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.4150390625</c:v>
+                  <c:v>10.411376953125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.947265625</c:v>
+                  <c:v>10.9423828125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.728515625</c:v>
+                  <c:v>11.708984375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.7734375</c:v>
+                  <c:v>12.75390625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.03125</c:v>
+                  <c:v>21.796875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.9140625</c:v>
+                  <c:v>31.3671875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.0546875</c:v>
+                  <c:v>40.078125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.1875</c:v>
+                  <c:v>55.3125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.234375</c:v>
+                  <c:v>68.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,37 +1116,37 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.000526905059814</c:v>
+                  <c:v>20.000519752502441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.05279541015625</c:v>
+                  <c:v>20.0518798828125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.211181640625</c:v>
+                  <c:v>20.2081298828125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.47607421875</c:v>
+                  <c:v>20.46875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.849609375</c:v>
+                  <c:v>20.8349609375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.3330078125</c:v>
+                  <c:v>21.30859375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.44921875</c:v>
+                  <c:v>25.3125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.34375</c:v>
+                  <c:v>31.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.0546875</c:v>
+                  <c:v>40.078125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.1875</c:v>
+                  <c:v>55.3125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.234375</c:v>
+                  <c:v>68.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,37 +1251,37 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.000362992286682</c:v>
+                  <c:v>30.000352263450623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.036163330078125</c:v>
+                  <c:v>30.035247802734375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.1446533203125</c:v>
+                  <c:v>30.1409912109375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.325927734375</c:v>
+                  <c:v>30.31768798828125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.57861328125</c:v>
+                  <c:v>30.56396484375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.904541015625</c:v>
+                  <c:v>30.882568359375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.6181640625</c:v>
+                  <c:v>33.5009765625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.02734375</c:v>
+                  <c:v>37.734375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.88671875</c:v>
+                  <c:v>43.2421875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.5390625</c:v>
+                  <c:v>56.015625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.3125</c:v>
+                  <c:v>68.37890625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,37 +1362,37 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.000280141830444</c:v>
+                  <c:v>40.000269412994385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.027999877929688</c:v>
+                  <c:v>40.027008056640625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.1116943359375</c:v>
+                  <c:v>40.1080322265625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.25146484375</c:v>
+                  <c:v>40.242919921875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.44677734375</c:v>
+                  <c:v>40.430908203125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.6982421875</c:v>
+                  <c:v>40.67138671875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.763671875</c:v>
+                  <c:v>42.65625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.1328125</c:v>
+                  <c:v>45.859375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.5859375</c:v>
+                  <c:v>50.078125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61.5625</c:v>
+                  <c:v>60.46875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.125</c:v>
+                  <c:v>71.71875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,37 +1473,37 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.000230967998505</c:v>
+                  <c:v>50.000221282243729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.023078918457031</c:v>
+                  <c:v>50.022125244140625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.092315673828125</c:v>
+                  <c:v>50.0885009765625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.20751953125</c:v>
+                  <c:v>50.199127197265625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.36773681640625</c:v>
+                  <c:v>50.35247802734375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.57373046875</c:v>
+                  <c:v>50.55084228515625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.276611328125</c:v>
+                  <c:v>52.178955078125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.029296875</c:v>
+                  <c:v>54.8095703125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.69140625</c:v>
+                  <c:v>58.30078125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.017578125</c:v>
+                  <c:v>67.236328125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.3203125</c:v>
+                  <c:v>77.44140625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,61 +1897,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7605573374214547</c:v>
+                  <c:v>8.9616330276082099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.521114674842909</c:v>
+                  <c:v>17.92326605521642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.281672012264366</c:v>
+                  <c:v>26.884899082824631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.042229349685819</c:v>
+                  <c:v>35.84653211043284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.802786687107272</c:v>
+                  <c:v>44.808165138041048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.563344024528725</c:v>
+                  <c:v>53.769798165649256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.323901361950178</c:v>
+                  <c:v>62.731431193257464</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.084458699371638</c:v>
+                  <c:v>71.693064220865679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.845016036793098</c:v>
+                  <c:v>80.654697248473894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.605573374214558</c:v>
+                  <c:v>89.61633027608211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.366130711636018</c:v>
+                  <c:v>98.577963303690325</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.12668804905748</c:v>
+                  <c:v>107.53959633129854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.88724538647894</c:v>
+                  <c:v>116.50122935890676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.6478027239004</c:v>
+                  <c:v>125.46286238651497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.40836006132184</c:v>
+                  <c:v>134.42449541412319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140.1689173987433</c:v>
+                  <c:v>143.38612844173139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.92947473616476</c:v>
+                  <c:v>152.34776146933959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.69003207358622</c:v>
+                  <c:v>161.30939449694779</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.45058941100768</c:v>
+                  <c:v>170.27102752455599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1964,19 +1966,19 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.920654296875</c:v>
+                  <c:v>9.9176025390625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6728515625</c:v>
+                  <c:v>9.658203125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2138671875</c:v>
+                  <c:v>9.1796875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.41796875</c:v>
+                  <c:v>8.330078125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.625</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-1</c:v>
@@ -2054,61 +2056,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7605573374214547</c:v>
+                  <c:v>8.9616330276082099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.521114674842909</c:v>
+                  <c:v>17.92326605521642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.281672012264366</c:v>
+                  <c:v>26.884899082824631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.042229349685819</c:v>
+                  <c:v>35.84653211043284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.802786687107272</c:v>
+                  <c:v>44.808165138041048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.563344024528725</c:v>
+                  <c:v>53.769798165649256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.323901361950178</c:v>
+                  <c:v>62.731431193257464</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.084458699371638</c:v>
+                  <c:v>71.693064220865679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.845016036793098</c:v>
+                  <c:v>80.654697248473894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.605573374214558</c:v>
+                  <c:v>89.61633027608211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.366130711636018</c:v>
+                  <c:v>98.577963303690325</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.12668804905748</c:v>
+                  <c:v>107.53959633129854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.88724538647894</c:v>
+                  <c:v>116.50122935890676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.6478027239004</c:v>
+                  <c:v>125.46286238651497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.40836006132184</c:v>
+                  <c:v>134.42449541412319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140.1689173987433</c:v>
+                  <c:v>143.38612844173139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.92947473616476</c:v>
+                  <c:v>152.34776146933959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.69003207358622</c:v>
+                  <c:v>161.30939449694779</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.45058941100768</c:v>
+                  <c:v>170.27102752455599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,25 +2125,25 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.946670532226563</c:v>
+                  <c:v>14.944610595703125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.783935546875</c:v>
+                  <c:v>14.77569580078125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.501953125</c:v>
+                  <c:v>14.483642578125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.080810546875</c:v>
+                  <c:v>14.0478515625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.48388671875</c:v>
+                  <c:v>13.42529296875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.626953125</c:v>
+                  <c:v>12.5244140625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.25</c:v>
+                  <c:v>11.015625</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-1</c:v>
@@ -2213,61 +2215,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7605573374214547</c:v>
+                  <c:v>8.9616330276082099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.521114674842909</c:v>
+                  <c:v>17.92326605521642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.281672012264366</c:v>
+                  <c:v>26.884899082824631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.042229349685819</c:v>
+                  <c:v>35.84653211043284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.802786687107272</c:v>
+                  <c:v>44.808165138041048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.563344024528725</c:v>
+                  <c:v>53.769798165649256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.323901361950178</c:v>
+                  <c:v>62.731431193257464</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.084458699371638</c:v>
+                  <c:v>71.693064220865679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.845016036793098</c:v>
+                  <c:v>80.654697248473894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.605573374214558</c:v>
+                  <c:v>89.61633027608211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.366130711636018</c:v>
+                  <c:v>98.577963303690325</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.12668804905748</c:v>
+                  <c:v>107.53959633129854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.88724538647894</c:v>
+                  <c:v>116.50122935890676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.6478027239004</c:v>
+                  <c:v>125.46286238651497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.40836006132184</c:v>
+                  <c:v>134.42449541412319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140.1689173987433</c:v>
+                  <c:v>143.38612844173139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.92947473616476</c:v>
+                  <c:v>152.34776146933959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.69003207358622</c:v>
+                  <c:v>161.30939449694779</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.45058941100768</c:v>
+                  <c:v>170.27102752455599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,34 +2284,34 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.95941162109375</c:v>
+                  <c:v>19.95819091796875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.83642578125</c:v>
+                  <c:v>19.83154296875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.627685546875</c:v>
+                  <c:v>19.61669921875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.326171875</c:v>
+                  <c:v>19.306640625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.9208984375</c:v>
+                  <c:v>18.88671875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.3984375</c:v>
+                  <c:v>18.3447265625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.724609375</c:v>
+                  <c:v>17.646484375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.8359375</c:v>
+                  <c:v>16.71875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.625</c:v>
+                  <c:v>15.4296875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.515625</c:v>
+                  <c:v>12.96875</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-1</c:v>
@@ -2372,61 +2374,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7605573374214547</c:v>
+                  <c:v>8.9616330276082099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.521114674842909</c:v>
+                  <c:v>17.92326605521642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.281672012264366</c:v>
+                  <c:v>26.884899082824631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.042229349685819</c:v>
+                  <c:v>35.84653211043284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.802786687107272</c:v>
+                  <c:v>44.808165138041048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.563344024528725</c:v>
+                  <c:v>53.769798165649256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.323901361950178</c:v>
+                  <c:v>62.731431193257464</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.084458699371638</c:v>
+                  <c:v>71.693064220865679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.845016036793098</c:v>
+                  <c:v>80.654697248473894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.605573374214558</c:v>
+                  <c:v>89.61633027608211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.366130711636018</c:v>
+                  <c:v>98.577963303690325</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.12668804905748</c:v>
+                  <c:v>107.53959633129854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.88724538647894</c:v>
+                  <c:v>116.50122935890676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.6478027239004</c:v>
+                  <c:v>125.46286238651497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.40836006132184</c:v>
+                  <c:v>134.42449541412319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140.1689173987433</c:v>
+                  <c:v>143.38612844173139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.92947473616476</c:v>
+                  <c:v>152.34776146933959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.69003207358622</c:v>
+                  <c:v>161.30939449694779</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.45058941100768</c:v>
+                  <c:v>170.27102752455599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,43 +2443,43 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.967098236083984</c:v>
+                  <c:v>24.966239929199219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.868011474609375</c:v>
+                  <c:v>24.86419677734375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.700927734375</c:v>
+                  <c:v>24.69329833984375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.462890625</c:v>
+                  <c:v>24.4476318359375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.1485595703125</c:v>
+                  <c:v>24.127197265625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.7548828125</c:v>
+                  <c:v>23.71826171875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.2666015625</c:v>
+                  <c:v>23.2177734375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.66845703125</c:v>
+                  <c:v>22.607421875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.9482421875</c:v>
+                  <c:v>21.86279296875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.0693359375</c:v>
+                  <c:v>20.947265625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.921875</c:v>
+                  <c:v>19.775390625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.3837890625</c:v>
+                  <c:v>18.115234375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.33203125</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-1</c:v>
@@ -2531,61 +2533,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7605573374214547</c:v>
+                  <c:v>8.9616330276082099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.521114674842909</c:v>
+                  <c:v>17.92326605521642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.281672012264366</c:v>
+                  <c:v>26.884899082824631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.042229349685819</c:v>
+                  <c:v>35.84653211043284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.802786687107272</c:v>
+                  <c:v>44.808165138041048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.563344024528725</c:v>
+                  <c:v>53.769798165649256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.323901361950178</c:v>
+                  <c:v>62.731431193257464</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.084458699371638</c:v>
+                  <c:v>71.693064220865679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.845016036793098</c:v>
+                  <c:v>80.654697248473894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.605573374214558</c:v>
+                  <c:v>89.61633027608211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.366130711636018</c:v>
+                  <c:v>98.577963303690325</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.12668804905748</c:v>
+                  <c:v>107.53959633129854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.88724538647894</c:v>
+                  <c:v>116.50122935890676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.6478027239004</c:v>
+                  <c:v>125.46286238651497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.40836006132184</c:v>
+                  <c:v>134.42449541412319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140.1689173987433</c:v>
+                  <c:v>143.38612844173139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.92947473616476</c:v>
+                  <c:v>152.34776146933959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.69003207358622</c:v>
+                  <c:v>161.30939449694779</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.45058941100768</c:v>
+                  <c:v>170.27102752455599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2600,49 +2602,49 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.972190856933594</c:v>
+                  <c:v>29.97161865234375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.8883056640625</c:v>
+                  <c:v>29.886474609375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.747314453125</c:v>
+                  <c:v>29.74273681640625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.549560546875</c:v>
+                  <c:v>29.5404052734375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.28955078125</c:v>
+                  <c:v>29.27490234375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.96728515625</c:v>
+                  <c:v>28.9453125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.57177734375</c:v>
+                  <c:v>28.546142578125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.1103515625</c:v>
+                  <c:v>28.07373046875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.56103515625</c:v>
+                  <c:v>27.509765625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.923828125</c:v>
+                  <c:v>26.865234375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.162109375</c:v>
+                  <c:v>26.0888671875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.283203125</c:v>
+                  <c:v>25.1806640625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.19921875</c:v>
+                  <c:v>24.08203125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.8515625</c:v>
+                  <c:v>22.734375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.03515625</c:v>
+                  <c:v>20.80078125</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-1</c:v>
@@ -2690,61 +2692,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7605573374214547</c:v>
+                  <c:v>8.9616330276082099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.521114674842909</c:v>
+                  <c:v>17.92326605521642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.281672012264366</c:v>
+                  <c:v>26.884899082824631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.042229349685819</c:v>
+                  <c:v>35.84653211043284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.802786687107272</c:v>
+                  <c:v>44.808165138041048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.563344024528725</c:v>
+                  <c:v>53.769798165649256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.323901361950178</c:v>
+                  <c:v>62.731431193257464</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.084458699371638</c:v>
+                  <c:v>71.693064220865679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.845016036793098</c:v>
+                  <c:v>80.654697248473894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.605573374214558</c:v>
+                  <c:v>89.61633027608211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.366130711636018</c:v>
+                  <c:v>98.577963303690325</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.12668804905748</c:v>
+                  <c:v>107.53959633129854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.88724538647894</c:v>
+                  <c:v>116.50122935890676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.6478027239004</c:v>
+                  <c:v>125.46286238651497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.40836006132184</c:v>
+                  <c:v>134.42449541412319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140.1689173987433</c:v>
+                  <c:v>143.38612844173139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.92947473616476</c:v>
+                  <c:v>152.34776146933959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.69003207358622</c:v>
+                  <c:v>161.30939449694779</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.45058941100768</c:v>
+                  <c:v>170.27102752455599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,58 +2761,58 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.975833892822266</c:v>
+                  <c:v>34.975433349609375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.903068542480469</c:v>
+                  <c:v>34.9017333984375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.781036376953125</c:v>
+                  <c:v>34.77783203125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.60906982421875</c:v>
+                  <c:v>34.60479736328125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.38690185546875</c:v>
+                  <c:v>34.37835693359375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.111328125</c:v>
+                  <c:v>34.0985107421875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.778076171875</c:v>
+                  <c:v>33.760986328125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.3892822265625</c:v>
+                  <c:v>33.367919921875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.940673828125</c:v>
+                  <c:v>32.9150390625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.41943359375</c:v>
+                  <c:v>32.38525390625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.8212890625</c:v>
+                  <c:v>31.787109375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.15478515625</c:v>
+                  <c:v>31.103515625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.3857421875</c:v>
+                  <c:v>30.3173828125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.4970703125</c:v>
+                  <c:v>29.4287109375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.4716796875</c:v>
+                  <c:v>28.4033203125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.275390625</c:v>
+                  <c:v>27.1728515625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.771484375</c:v>
+                  <c:v>25.6689453125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.7890625</c:v>
+                  <c:v>23.65234375</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -4296,29 +4298,29 @@
   </sheetPr>
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="11" max="12" width="10.1796875" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="32" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4327,20 +4329,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
@@ -4356,7 +4358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>31</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>33</v>
       </c>
@@ -4424,7 +4426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
@@ -4442,7 +4444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
         <v>35</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
@@ -4498,13 +4500,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
@@ -4526,14 +4528,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
         <v>13</v>
       </c>
@@ -4544,7 +4546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
         <v>14</v>
       </c>
@@ -4555,16 +4557,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="29" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -4586,13 +4588,13 @@
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="29" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,1)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:True;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:True;</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -4614,13 +4616,13 @@
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="29" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_kf_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,200;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.200;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -4642,15 +4644,15 @@
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
         <v>8</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>22</v>
       </c>
@@ -4672,19 +4674,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="23">
         <f t="array" ref="C32:G33">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.73895263671875</v>
+        <v>25.7445068359375</v>
       </c>
       <c r="D32" s="23">
         <v>26</v>
       </c>
       <c r="E32" s="23">
-        <v>25.73895263671875</v>
+        <v>25.7445068359375</v>
       </c>
       <c r="F32" s="23">
         <v>30</v>
@@ -4693,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C33" s="23" t="str">
         <v>Pout, atma</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>c_calibr_fr</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
         <v>25</v>
       </c>
@@ -4721,16 +4723,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="23">
         <f t="array" ref="C36:G37">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>6.396484375</v>
+        <v>6.3916015625</v>
       </c>
       <c r="D36" s="23">
-        <v>6.396484375</v>
+        <v>6.3916015625</v>
       </c>
       <c r="E36" s="23">
         <v>5</v>
@@ -4742,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C37" s="23" t="str">
         <v>Pin, atma</v>
       </c>
@@ -4759,16 +4761,16 @@
         <v>c_calibr_fr</v>
       </c>
     </row>
-    <row r="38" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C40" s="7">
         <f t="array" ref="C40:G41">[1]!MF_calibr_choke_fr(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
-        <v>0.20889911495164873</v>
+        <v>0.20597524534024222</v>
       </c>
       <c r="D40" s="25">
         <v>26</v>
@@ -4780,10 +4782,10 @@
         <v>30</v>
       </c>
       <c r="G40" s="7">
-        <v>0.20889911495164873</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0.20597524534024222</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="25" t="str">
         <v>c_calibr_fr</v>
       </c>
@@ -4800,13 +4802,13 @@
         <v>c_calibr_fr</v>
       </c>
     </row>
-    <row r="42" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="24">
         <f t="array" ref="C44:G45">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C40,PVTstr_)</f>
         <v>24.999999999999996</v>
@@ -4821,10 +4823,10 @@
         <v>30</v>
       </c>
       <c r="G44" s="7">
-        <v>0.20889911495164873</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0.20597524534024222</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C45" s="24" t="str">
         <v>Qliq</v>
       </c>
@@ -4841,20 +4843,20 @@
         <v>c_calibr_fr</v>
       </c>
     </row>
-    <row r="46" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="32" t="s">
         <v>8</v>
       </c>
@@ -4870,7 +4872,7 @@
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
     </row>
-    <row r="52" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B52" s="17" t="s">
         <v>16</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>2</v>
       </c>
@@ -4921,7 +4923,7 @@
       </c>
       <c r="D53" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>2.00494384765625</v>
+        <v>2.0049285888671875</v>
       </c>
       <c r="E53" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
@@ -4929,43 +4931,43 @@
       </c>
       <c r="F53" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>4.625</v>
+        <v>4.6171875</v>
       </c>
       <c r="G53" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>6.90625</v>
+        <v>6.890625</v>
       </c>
       <c r="H53" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.15625</v>
+        <v>9.125</v>
       </c>
       <c r="I53" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.375</v>
+        <v>11.328125</v>
       </c>
       <c r="J53" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22</v>
+        <v>21.8125</v>
       </c>
       <c r="K53" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.9375</v>
+        <v>31.375</v>
       </c>
       <c r="L53" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.0625</v>
+        <v>40.0625</v>
       </c>
       <c r="M53" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>57.125</v>
+        <v>55.375</v>
       </c>
       <c r="N53" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>70.25</v>
+        <v>68.125</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>10</v>
       </c>
@@ -4975,51 +4977,51 @@
       </c>
       <c r="D54" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.001020431518555</v>
+        <v>10.001015663146973</v>
       </c>
       <c r="E54" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.1025390625</v>
+        <v>10.1019287109375</v>
       </c>
       <c r="F54" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.4150390625</v>
+        <v>10.411376953125</v>
       </c>
       <c r="G54" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.947265625</v>
+        <v>10.9423828125</v>
       </c>
       <c r="H54" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.728515625</v>
+        <v>11.708984375</v>
       </c>
       <c r="I54" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.7734375</v>
+        <v>12.75390625</v>
       </c>
       <c r="J54" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.03125</v>
+        <v>21.796875</v>
       </c>
       <c r="K54" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.9140625</v>
+        <v>31.3671875</v>
       </c>
       <c r="L54" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.0546875</v>
+        <v>40.078125</v>
       </c>
       <c r="M54" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>57.1875</v>
+        <v>55.3125</v>
       </c>
       <c r="N54" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>70.234375</v>
+        <v>68.125</v>
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>20</v>
       </c>
@@ -5029,51 +5031,51 @@
       </c>
       <c r="D55" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.000526905059814</v>
+        <v>20.000519752502441</v>
       </c>
       <c r="E55" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.05279541015625</v>
+        <v>20.0518798828125</v>
       </c>
       <c r="F55" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.211181640625</v>
+        <v>20.2081298828125</v>
       </c>
       <c r="G55" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.47607421875</v>
+        <v>20.46875</v>
       </c>
       <c r="H55" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.849609375</v>
+        <v>20.8349609375</v>
       </c>
       <c r="I55" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.3330078125</v>
+        <v>21.30859375</v>
       </c>
       <c r="J55" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.44921875</v>
+        <v>25.3125</v>
       </c>
       <c r="K55" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.34375</v>
+        <v>31.875</v>
       </c>
       <c r="L55" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.0546875</v>
+        <v>40.078125</v>
       </c>
       <c r="M55" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>57.1875</v>
+        <v>55.3125</v>
       </c>
       <c r="N55" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>70.234375</v>
+        <v>68.125</v>
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>30</v>
       </c>
@@ -5083,51 +5085,51 @@
       </c>
       <c r="D56" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.000362992286682</v>
+        <v>30.000352263450623</v>
       </c>
       <c r="E56" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.036163330078125</v>
+        <v>30.035247802734375</v>
       </c>
       <c r="F56" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.1446533203125</v>
+        <v>30.1409912109375</v>
       </c>
       <c r="G56" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.325927734375</v>
+        <v>30.31768798828125</v>
       </c>
       <c r="H56" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.57861328125</v>
+        <v>30.56396484375</v>
       </c>
       <c r="I56" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.904541015625</v>
+        <v>30.882568359375</v>
       </c>
       <c r="J56" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.6181640625</v>
+        <v>33.5009765625</v>
       </c>
       <c r="K56" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>38.02734375</v>
+        <v>37.734375</v>
       </c>
       <c r="L56" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>43.88671875</v>
+        <v>43.2421875</v>
       </c>
       <c r="M56" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>57.5390625</v>
+        <v>56.015625</v>
       </c>
       <c r="N56" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>70.3125</v>
+        <v>68.37890625</v>
       </c>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>40</v>
       </c>
@@ -5137,51 +5139,51 @@
       </c>
       <c r="D57" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.000280141830444</v>
+        <v>40.000269412994385</v>
       </c>
       <c r="E57" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.027999877929688</v>
+        <v>40.027008056640625</v>
       </c>
       <c r="F57" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.1116943359375</v>
+        <v>40.1080322265625</v>
       </c>
       <c r="G57" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.25146484375</v>
+        <v>40.242919921875</v>
       </c>
       <c r="H57" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.44677734375</v>
+        <v>40.430908203125</v>
       </c>
       <c r="I57" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.6982421875</v>
+        <v>40.67138671875</v>
       </c>
       <c r="J57" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>42.763671875</v>
+        <v>42.65625</v>
       </c>
       <c r="K57" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>46.1328125</v>
+        <v>45.859375</v>
       </c>
       <c r="L57" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.5859375</v>
+        <v>50.078125</v>
       </c>
       <c r="M57" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>61.5625</v>
+        <v>60.46875</v>
       </c>
       <c r="N57" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>73.125</v>
+        <v>71.71875</v>
       </c>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>50</v>
       </c>
@@ -5191,50 +5193,50 @@
       </c>
       <c r="D58" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.000230967998505</v>
+        <v>50.000221282243729</v>
       </c>
       <c r="E58" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.023078918457031</v>
+        <v>50.022125244140625</v>
       </c>
       <c r="F58" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.092315673828125</v>
+        <v>50.0885009765625</v>
       </c>
       <c r="G58" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.20751953125</v>
+        <v>50.199127197265625</v>
       </c>
       <c r="H58" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.36773681640625</v>
+        <v>50.35247802734375</v>
       </c>
       <c r="I58" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.57373046875</v>
+        <v>50.55084228515625</v>
       </c>
       <c r="J58" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>52.276611328125</v>
+        <v>52.178955078125</v>
       </c>
       <c r="K58" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>55.029296875</v>
+        <v>54.8095703125</v>
       </c>
       <c r="L58" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>58.69140625</v>
+        <v>58.30078125</v>
       </c>
       <c r="M58" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>68.017578125</v>
+        <v>67.236328125</v>
       </c>
       <c r="N58" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>78.3203125</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>77.44140625</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
@@ -5242,7 +5244,7 @@
       <c r="G59" s="5"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
@@ -5250,7 +5252,7 @@
       <c r="G60" s="5"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
@@ -5258,7 +5260,7 @@
       <c r="G61" s="5"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
@@ -5266,7 +5268,7 @@
       <c r="G62" s="5"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
@@ -5274,7 +5276,7 @@
       <c r="G63" s="5"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
@@ -5282,7 +5284,7 @@
       <c r="G64" s="5"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
@@ -5290,7 +5292,7 @@
       <c r="G65" s="5"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
@@ -5298,7 +5300,7 @@
       <c r="G66" s="5"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
@@ -5306,7 +5308,7 @@
       <c r="G67" s="5"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
@@ -5314,7 +5316,7 @@
       <c r="G68" s="5"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
@@ -5322,7 +5324,7 @@
       <c r="G69" s="5"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
@@ -5330,7 +5332,7 @@
       <c r="G70" s="5"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
@@ -5338,7 +5340,7 @@
       <c r="G71" s="5"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
@@ -5346,7 +5348,7 @@
       <c r="G72" s="5"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
@@ -5354,7 +5356,7 @@
       <c r="G73" s="5"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
@@ -5362,7 +5364,7 @@
       <c r="G74" s="5"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
@@ -5370,7 +5372,7 @@
       <c r="G75" s="5"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
@@ -5378,7 +5380,7 @@
       <c r="G76" s="5"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
@@ -5386,17 +5388,17 @@
       <c r="G77" s="5"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B93" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C93" s="25">
         <f>[1]!MF_qliq_choke_sm3day(fw_,d_choke,B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>166.45058941100763</v>
-      </c>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+        <v>170.27102752455599</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C94" s="33" t="s">
         <v>8</v>
       </c>
@@ -5412,7 +5414,7 @@
       <c r="M94" s="32"/>
       <c r="N94" s="32"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B95" s="30" t="s">
         <v>45</v>
       </c>
@@ -5421,82 +5423,82 @@
       </c>
       <c r="D95" s="27">
         <f>C95+$C$93/19</f>
-        <v>8.7605573374214547</v>
+        <v>8.9616330276082099</v>
       </c>
       <c r="E95" s="27">
         <f t="shared" ref="E95:V95" si="0">D95+$C$93/19</f>
-        <v>17.521114674842909</v>
+        <v>17.92326605521642</v>
       </c>
       <c r="F95" s="27">
         <f t="shared" si="0"/>
-        <v>26.281672012264366</v>
+        <v>26.884899082824631</v>
       </c>
       <c r="G95" s="27">
         <f t="shared" si="0"/>
-        <v>35.042229349685819</v>
+        <v>35.84653211043284</v>
       </c>
       <c r="H95" s="27">
         <f t="shared" si="0"/>
-        <v>43.802786687107272</v>
+        <v>44.808165138041048</v>
       </c>
       <c r="I95" s="27">
         <f t="shared" si="0"/>
-        <v>52.563344024528725</v>
+        <v>53.769798165649256</v>
       </c>
       <c r="J95" s="27">
         <f t="shared" si="0"/>
-        <v>61.323901361950178</v>
+        <v>62.731431193257464</v>
       </c>
       <c r="K95" s="27">
         <f t="shared" si="0"/>
-        <v>70.084458699371638</v>
+        <v>71.693064220865679</v>
       </c>
       <c r="L95" s="27">
         <f t="shared" si="0"/>
-        <v>78.845016036793098</v>
+        <v>80.654697248473894</v>
       </c>
       <c r="M95" s="27">
         <f t="shared" si="0"/>
-        <v>87.605573374214558</v>
+        <v>89.61633027608211</v>
       </c>
       <c r="N95" s="27">
         <f t="shared" si="0"/>
-        <v>96.366130711636018</v>
+        <v>98.577963303690325</v>
       </c>
       <c r="O95" s="27">
         <f t="shared" si="0"/>
-        <v>105.12668804905748</v>
+        <v>107.53959633129854</v>
       </c>
       <c r="P95" s="27">
         <f t="shared" si="0"/>
-        <v>113.88724538647894</v>
+        <v>116.50122935890676</v>
       </c>
       <c r="Q95" s="27">
         <f t="shared" si="0"/>
-        <v>122.6478027239004</v>
+        <v>125.46286238651497</v>
       </c>
       <c r="R95" s="27">
         <f t="shared" si="0"/>
-        <v>131.40836006132184</v>
+        <v>134.42449541412319</v>
       </c>
       <c r="S95" s="27">
         <f t="shared" si="0"/>
-        <v>140.1689173987433</v>
+        <v>143.38612844173139</v>
       </c>
       <c r="T95" s="27">
         <f t="shared" si="0"/>
-        <v>148.92947473616476</v>
+        <v>152.34776146933959</v>
       </c>
       <c r="U95" s="27">
         <f t="shared" si="0"/>
-        <v>157.69003207358622</v>
+        <v>161.30939449694779</v>
       </c>
       <c r="V95" s="27">
         <f t="shared" si="0"/>
-        <v>166.45058941100768</v>
-      </c>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
+        <v>170.27102752455599</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
         <v>10</v>
       </c>
@@ -5506,23 +5508,23 @@
       </c>
       <c r="D96" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.920654296875</v>
+        <v>9.9176025390625</v>
       </c>
       <c r="E96" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.6728515625</v>
+        <v>9.658203125</v>
       </c>
       <c r="F96" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.2138671875</v>
+        <v>9.1796875</v>
       </c>
       <c r="G96" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>8.41796875</v>
+        <v>8.330078125</v>
       </c>
       <c r="H96" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>5.625</v>
+        <v>-1</v>
       </c>
       <c r="I96" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
@@ -5581,7 +5583,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
         <v>15</v>
       </c>
@@ -5591,31 +5593,31 @@
       </c>
       <c r="D97" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.946670532226563</v>
+        <v>14.944610595703125</v>
       </c>
       <c r="E97" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.783935546875</v>
+        <v>14.77569580078125</v>
       </c>
       <c r="F97" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.501953125</v>
+        <v>14.483642578125</v>
       </c>
       <c r="G97" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.080810546875</v>
+        <v>14.0478515625</v>
       </c>
       <c r="H97" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.48388671875</v>
+        <v>13.42529296875</v>
       </c>
       <c r="I97" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.626953125</v>
+        <v>12.5244140625</v>
       </c>
       <c r="J97" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.25</v>
+        <v>11.015625</v>
       </c>
       <c r="K97" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
@@ -5666,7 +5668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
         <v>20</v>
       </c>
@@ -5676,43 +5678,43 @@
       </c>
       <c r="D98" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.95941162109375</v>
+        <v>19.95819091796875</v>
       </c>
       <c r="E98" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.83642578125</v>
+        <v>19.83154296875</v>
       </c>
       <c r="F98" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.627685546875</v>
+        <v>19.61669921875</v>
       </c>
       <c r="G98" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.326171875</v>
+        <v>19.306640625</v>
       </c>
       <c r="H98" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.9208984375</v>
+        <v>18.88671875</v>
       </c>
       <c r="I98" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.3984375</v>
+        <v>18.3447265625</v>
       </c>
       <c r="J98" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.724609375</v>
+        <v>17.646484375</v>
       </c>
       <c r="K98" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>16.8359375</v>
+        <v>16.71875</v>
       </c>
       <c r="L98" s="25">
         <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.625</v>
+        <v>15.4296875</v>
       </c>
       <c r="M98" s="25">
         <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.515625</v>
+        <v>12.96875</v>
       </c>
       <c r="N98" s="25">
         <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
@@ -5751,7 +5753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
         <v>25</v>
       </c>
@@ -5761,55 +5763,55 @@
       </c>
       <c r="D99" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.967098236083984</v>
+        <v>24.966239929199219</v>
       </c>
       <c r="E99" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.868011474609375</v>
+        <v>24.86419677734375</v>
       </c>
       <c r="F99" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.700927734375</v>
+        <v>24.69329833984375</v>
       </c>
       <c r="G99" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.462890625</v>
+        <v>24.4476318359375</v>
       </c>
       <c r="H99" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.1485595703125</v>
+        <v>24.127197265625</v>
       </c>
       <c r="I99" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.7548828125</v>
+        <v>23.71826171875</v>
       </c>
       <c r="J99" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.2666015625</v>
+        <v>23.2177734375</v>
       </c>
       <c r="K99" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.66845703125</v>
+        <v>22.607421875</v>
       </c>
       <c r="L99" s="25">
         <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.9482421875</v>
+        <v>21.86279296875</v>
       </c>
       <c r="M99" s="25">
         <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.0693359375</v>
+        <v>20.947265625</v>
       </c>
       <c r="N99" s="25">
         <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.921875</v>
+        <v>19.775390625</v>
       </c>
       <c r="O99" s="25">
         <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.3837890625</v>
+        <v>18.115234375</v>
       </c>
       <c r="P99" s="25">
         <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.33203125</v>
+        <v>-1</v>
       </c>
       <c r="Q99" s="25">
         <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
@@ -5836,7 +5838,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
         <v>30</v>
       </c>
@@ -5846,63 +5848,63 @@
       </c>
       <c r="D100" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.972190856933594</v>
+        <v>29.97161865234375</v>
       </c>
       <c r="E100" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.8883056640625</v>
+        <v>29.886474609375</v>
       </c>
       <c r="F100" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.747314453125</v>
+        <v>29.74273681640625</v>
       </c>
       <c r="G100" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.549560546875</v>
+        <v>29.5404052734375</v>
       </c>
       <c r="H100" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.28955078125</v>
+        <v>29.27490234375</v>
       </c>
       <c r="I100" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.96728515625</v>
+        <v>28.9453125</v>
       </c>
       <c r="J100" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.57177734375</v>
+        <v>28.546142578125</v>
       </c>
       <c r="K100" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.1103515625</v>
+        <v>28.07373046875</v>
       </c>
       <c r="L100" s="25">
         <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.56103515625</v>
+        <v>27.509765625</v>
       </c>
       <c r="M100" s="25">
         <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>26.923828125</v>
+        <v>26.865234375</v>
       </c>
       <c r="N100" s="25">
         <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>26.162109375</v>
+        <v>26.0888671875</v>
       </c>
       <c r="O100" s="25">
         <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.283203125</v>
+        <v>25.1806640625</v>
       </c>
       <c r="P100" s="25">
         <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.19921875</v>
+        <v>24.08203125</v>
       </c>
       <c r="Q100" s="25">
         <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.8515625</v>
+        <v>22.734375</v>
       </c>
       <c r="R100" s="25">
         <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.03515625</v>
+        <v>20.80078125</v>
       </c>
       <c r="S100" s="25">
         <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
@@ -5921,7 +5923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>35</v>
       </c>
@@ -5931,75 +5933,75 @@
       </c>
       <c r="D101" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.975833892822266</v>
+        <v>34.975433349609375</v>
       </c>
       <c r="E101" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.903068542480469</v>
+        <v>34.9017333984375</v>
       </c>
       <c r="F101" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.781036376953125</v>
+        <v>34.77783203125</v>
       </c>
       <c r="G101" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.60906982421875</v>
+        <v>34.60479736328125</v>
       </c>
       <c r="H101" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.38690185546875</v>
+        <v>34.37835693359375</v>
       </c>
       <c r="I101" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.111328125</v>
+        <v>34.0985107421875</v>
       </c>
       <c r="J101" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.778076171875</v>
+        <v>33.760986328125</v>
       </c>
       <c r="K101" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.3892822265625</v>
+        <v>33.367919921875</v>
       </c>
       <c r="L101" s="25">
         <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.940673828125</v>
+        <v>32.9150390625</v>
       </c>
       <c r="M101" s="25">
         <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.41943359375</v>
+        <v>32.38525390625</v>
       </c>
       <c r="N101" s="25">
         <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.8212890625</v>
+        <v>31.787109375</v>
       </c>
       <c r="O101" s="25">
         <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.15478515625</v>
+        <v>31.103515625</v>
       </c>
       <c r="P101" s="25">
         <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.3857421875</v>
+        <v>30.3173828125</v>
       </c>
       <c r="Q101" s="25">
         <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.4970703125</v>
+        <v>29.4287109375</v>
       </c>
       <c r="R101" s="25">
         <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.4716796875</v>
+        <v>28.4033203125</v>
       </c>
       <c r="S101" s="25">
         <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.275390625</v>
+        <v>27.1728515625</v>
       </c>
       <c r="T101" s="25">
         <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.771484375</v>
+        <v>25.6689453125</v>
       </c>
       <c r="U101" s="25">
         <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.7890625</v>
+        <v>23.65234375</v>
       </c>
       <c r="V101" s="25">
         <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>

--- a/exercises/ex040.MF_choke.xlsx
+++ b/exercises/ex040.MF_choke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EB3CDD-8432-4CFD-97D7-88ACD027350E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756417F-35BF-4B89-A50C-A822863FC8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="2250" windowWidth="25665" windowHeight="17400" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choke" sheetId="118" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="Bob_" localSheetId="0">Choke!$C$14</definedName>
+    <definedName name="cf_">Choke!$C$141</definedName>
     <definedName name="d_choke">Choke!$C$22</definedName>
     <definedName name="d_pipe">Choke!$C$21</definedName>
     <definedName name="fw_" localSheetId="0">Choke!$C$18</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Физико - химические свойства флюида   PVT</t>
   </si>
@@ -556,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -633,6 +634,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -645,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,7 +743,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -834,17 +852,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$N$52</c:f>
+              <c:f>Choke!$C$52:$AD$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -852,79 +870,175 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>400</c:v>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$53:$N$53</c:f>
+              <c:f>Choke!$C$53:$AD$53</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0049285888671875</c:v>
+                  <c:v>1.009857177734375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.55859375</c:v>
+                  <c:v>1.0400390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.169921875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.857421875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3203125</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4.6171875</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>6.890625</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>9.125</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>11.328125</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.71875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.78125</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>21.8125</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>23.78125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>31.375</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>33.1875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.9375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.6875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>40.0625</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68.125</c:v>
+                <c:pt idx="25">
+                  <c:v>41.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,17 +1059,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$O$52</c:f>
+              <c:f>Choke!$C$52:$AD$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -963,79 +1077,175 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>400</c:v>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$54:$O$54</c:f>
+              <c:f>Choke!$C$54:$AD$54</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.001015663146973</c:v>
+                  <c:v>5.0019979476928711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.1019287109375</c:v>
+                  <c:v>5.0079917907714844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.411376953125</c:v>
+                  <c:v>5.03204345703125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.9423828125</c:v>
+                  <c:v>5.12939453125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.708984375</c:v>
+                  <c:v>5.2032470703125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.75390625</c:v>
+                  <c:v>5.85693359375</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>7.099609375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.12109375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.328125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.49609375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.734375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.765625</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>21.796875</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>23.7890625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.7421875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.65625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.53125</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>31.3671875</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>33.203125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.9609375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.71875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.4375</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>40.078125</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.3125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68.125</c:v>
+                <c:pt idx="25">
+                  <c:v>41.71875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.359375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.921875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,17 +1266,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$O$52</c:f>
+              <c:f>Choke!$C$52:$AD$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1074,79 +1284,175 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>400</c:v>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$55:$O$55</c:f>
+              <c:f>Choke!$C$55:$AD$55</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.000519752502441</c:v>
+                  <c:v>10.001015663146973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0518798828125</c:v>
+                  <c:v>10.004062652587891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.2081298828125</c:v>
+                  <c:v>10.016250610351563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.46875</c:v>
+                  <c:v>10.06500244140625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.8349609375</c:v>
+                  <c:v>10.1019287109375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.30859375</c:v>
+                  <c:v>10.411376953125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.3125</c:v>
+                  <c:v>10.9423828125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.875</c:v>
+                  <c:v>11.708984375</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>12.75390625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.08203125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.7421875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.734375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.765625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.796875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.7890625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.7421875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.65625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.53125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.3671875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.203125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.9609375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.71875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.4375</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>40.078125</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.3125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68.125</c:v>
+                <c:pt idx="25">
+                  <c:v>41.71875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.359375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.921875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1473,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1198,10 +1504,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$O$52</c:f>
+              <c:f>Choke!$C$52:$AD$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1209,79 +1515,175 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>400</c:v>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$56:$O$56</c:f>
+              <c:f>Choke!$C$56:$AD$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.000352263450623</c:v>
+                  <c:v>15.000686645507813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.035247802734375</c:v>
+                  <c:v>15.00274658203125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.1409912109375</c:v>
+                  <c:v>15.010986328125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.31768798828125</c:v>
+                  <c:v>15.0439453125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.56396484375</c:v>
+                  <c:v>15.06866455078125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.882568359375</c:v>
+                  <c:v>15.27557373046875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.5009765625</c:v>
+                  <c:v>15.62255859375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.734375</c:v>
+                  <c:v>16.11328125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.2421875</c:v>
+                  <c:v>16.7578125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.015625</c:v>
+                  <c:v>17.55615234375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.37890625</c:v>
+                  <c:v>18.515625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.6435546875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.9326171875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.3828125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.994140625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.78125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.65625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.53125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.34765625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.1640625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.98046875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.6796875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.4375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.078125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.71875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.359375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.94140625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,17 +1704,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$N$52</c:f>
+              <c:f>Choke!$C$52:$AD$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1320,79 +1722,175 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>400</c:v>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$57:$N$57</c:f>
+              <c:f>Choke!$C$57:$AD$57</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.000269412994385</c:v>
+                  <c:v>20.000519752502441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.027008056640625</c:v>
+                  <c:v>20.002079010009766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.1080322265625</c:v>
+                  <c:v>20.008316040039063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.242919921875</c:v>
+                  <c:v>20.03326416015625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.430908203125</c:v>
+                  <c:v>20.0518798828125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.67138671875</c:v>
+                  <c:v>20.2081298828125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.65625</c:v>
+                  <c:v>20.46875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.859375</c:v>
+                  <c:v>20.8349609375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.078125</c:v>
+                  <c:v>21.30859375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.46875</c:v>
+                  <c:v>21.89453125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71.71875</c:v>
+                  <c:v>22.587890625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.37890625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.296875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.4453125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.65625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.984375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.390625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.078125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.71875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.4375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.078125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.71875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.359375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.921875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,17 +1911,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$N$52</c:f>
+              <c:f>Choke!$C$52:$AD$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1431,79 +1929,175 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>400</c:v>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$58:$N$58</c:f>
+              <c:f>Choke!$C$58:$AD$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.000221282243729</c:v>
+                  <c:v>30.000352263450623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.022125244140625</c:v>
+                  <c:v>30.00140905380249</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.0885009765625</c:v>
+                  <c:v>30.005636215209961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.199127197265625</c:v>
+                  <c:v>30.022544860839844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.35247802734375</c:v>
+                  <c:v>30.035247802734375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.55084228515625</c:v>
+                  <c:v>30.1409912109375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.178955078125</c:v>
+                  <c:v>30.31768798828125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.8095703125</c:v>
+                  <c:v>30.56396484375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.30078125</c:v>
+                  <c:v>30.882568359375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.236328125</c:v>
+                  <c:v>31.26708984375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77.44140625</c:v>
+                  <c:v>31.72119140625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.24853515625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.841796875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.5009765625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.21875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.009765625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.859375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.767578125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.734375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.73046875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.78515625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.8984375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.041015625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.2421875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.4140625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.64453125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.93359375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,61 +2491,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9616330276082099</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.92326605521642</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.884899082824631</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.84653211043284</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.808165138041048</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.769798165649256</c:v>
+                  <c:v>43.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.731431193257464</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.693064220865679</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.654697248473894</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.61633027608211</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.577963303690325</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.53959633129854</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.50122935890676</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>125.46286238651497</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134.42449541412319</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>143.38612844173139</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>152.34776146933959</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>161.30939449694779</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170.27102752455599</c:v>
+                  <c:v>91.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,22 +2560,22 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9176025390625</c:v>
+                  <c:v>9.764404296875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.658203125</c:v>
+                  <c:v>9.0966796875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1796875</c:v>
+                  <c:v>8.4375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.330078125</c:v>
+                  <c:v>7.67578125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>6.8359375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>5.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-1</c:v>
@@ -2056,61 +2650,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9616330276082099</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.92326605521642</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.884899082824631</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.84653211043284</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.808165138041048</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.769798165649256</c:v>
+                  <c:v>43.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.731431193257464</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.693064220865679</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.654697248473894</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.61633027608211</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.577963303690325</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.53959633129854</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.50122935890676</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>125.46286238651497</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134.42449541412319</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>143.38612844173139</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>152.34776146933959</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>161.30939449694779</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170.27102752455599</c:v>
+                  <c:v>91.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,43 +2719,43 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.944610595703125</c:v>
+                  <c:v>14.843902587890625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.77569580078125</c:v>
+                  <c:v>14.43603515625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.483642578125</c:v>
+                  <c:v>14.095458984375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0478515625</c:v>
+                  <c:v>13.7841796875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.42529296875</c:v>
+                  <c:v>13.564453125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.5244140625</c:v>
+                  <c:v>13.4912109375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.015625</c:v>
+                  <c:v>13.4912109375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>12.6123046875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1</c:v>
+                  <c:v>11.923828125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1</c:v>
+                  <c:v>11.5869140625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
+                  <c:v>11.1767578125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1</c:v>
+                  <c:v>10.3125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1</c:v>
+                  <c:v>8.4375</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-1</c:v>
@@ -2215,61 +2809,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9616330276082099</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.92326605521642</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.884899082824631</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.84653211043284</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.808165138041048</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.769798165649256</c:v>
+                  <c:v>43.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.731431193257464</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.693064220865679</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.654697248473894</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.61633027608211</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.577963303690325</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.53959633129854</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.50122935890676</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>125.46286238651497</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134.42449541412319</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>143.38612844173139</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>152.34776146933959</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>161.30939449694779</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170.27102752455599</c:v>
+                  <c:v>91.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,58 +2878,58 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.95819091796875</c:v>
+                  <c:v>19.8822021484375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.83154296875</c:v>
+                  <c:v>19.58251953125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.61669921875</c:v>
+                  <c:v>19.33837890625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.306640625</c:v>
+                  <c:v>19.1259765625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.88671875</c:v>
+                  <c:v>18.98193359375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.3447265625</c:v>
+                  <c:v>18.9306640625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.646484375</c:v>
+                  <c:v>18.9306640625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.71875</c:v>
+                  <c:v>18.3984375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.4296875</c:v>
+                  <c:v>18.037109375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.96875</c:v>
+                  <c:v>17.880859375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
+                  <c:v>17.705078125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1</c:v>
+                  <c:v>17.431640625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1</c:v>
+                  <c:v>17.236328125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1</c:v>
+                  <c:v>17.216796875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1</c:v>
+                  <c:v>16.171875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1</c:v>
+                  <c:v>14.53125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1</c:v>
+                  <c:v>12.8125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-1</c:v>
@@ -2366,137 +2960,233 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:f>Choke!$C$95:$AQ$95</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9616330276082099</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.92326605521642</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.884899082824631</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.84653211043284</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.808165138041048</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.769798165649256</c:v>
+                  <c:v>43.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.731431193257464</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.693064220865679</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.654697248473894</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.61633027608211</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.577963303690325</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.53959633129854</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.50122935890676</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>125.46286238651497</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134.42449541412319</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>143.38612844173139</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>152.34776146933959</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>161.30939449694779</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170.27102752455599</c:v>
+                  <c:v>91.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>142.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>170.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$99:$V$99</c:f>
+              <c:f>Choke!$C$99:$AQ$99</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.966239929199219</c:v>
+                  <c:v>24.9053955078125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.86419677734375</c:v>
+                  <c:v>24.666595458984375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.69329833984375</c:v>
+                  <c:v>24.47509765625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.4476318359375</c:v>
+                  <c:v>24.310302734375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.127197265625</c:v>
+                  <c:v>24.1973876953125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.71826171875</c:v>
+                  <c:v>24.1607666015625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.2177734375</c:v>
+                  <c:v>24.15771484375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.607421875</c:v>
+                  <c:v>23.760986328125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.86279296875</c:v>
+                  <c:v>23.49853515625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.947265625</c:v>
+                  <c:v>23.382568359375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.775390625</c:v>
+                  <c:v>23.2666015625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.115234375</c:v>
+                  <c:v>23.077392578125</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>22.943115234375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.930908203125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.265625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.435546875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.8984375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.7763671875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.7763671875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.5556640625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.529296875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.552734375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.84375</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="25">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="26">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="28">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="29">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2525,137 +3215,233 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:f>Choke!$C$95:$AQ$95</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9616330276082099</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.92326605521642</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.884899082824631</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.84653211043284</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.808165138041048</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.769798165649256</c:v>
+                  <c:v>43.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.731431193257464</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.693064220865679</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.654697248473894</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.61633027608211</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.577963303690325</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.53959633129854</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.50122935890676</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>125.46286238651497</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134.42449541412319</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>143.38612844173139</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>152.34776146933959</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>161.30939449694779</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170.27102752455599</c:v>
+                  <c:v>91.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>142.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>170.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$100:$V$100</c:f>
+              <c:f>Choke!$C$100:$AQ$100</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.97161865234375</c:v>
+                  <c:v>29.92034912109375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.886474609375</c:v>
+                  <c:v>29.72076416015625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.74273681640625</c:v>
+                  <c:v>29.5623779296875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.5404052734375</c:v>
+                  <c:v>29.425048828125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.27490234375</c:v>
+                  <c:v>29.33349609375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.9453125</c:v>
+                  <c:v>29.30419921875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.546142578125</c:v>
+                  <c:v>29.3023681640625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.07373046875</c:v>
+                  <c:v>28.978271484375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.509765625</c:v>
+                  <c:v>28.765869140625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.865234375</c:v>
+                  <c:v>28.67431640625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.0888671875</c:v>
+                  <c:v>28.5791015625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.1806640625</c:v>
+                  <c:v>28.4326171875</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>28.330078125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.32275390625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.8173828125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.20947265625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.8212890625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.748046875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.7333984375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.95703125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.90234375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.55078125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.140625</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>24.08203125</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.734375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.80078125</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
+                  <c:v>22.79296875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.85546875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.6875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="30">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="32">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2684,138 +3470,234 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:f>Choke!$C$95:$AL$95</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9616330276082099</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.92326605521642</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.884899082824631</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.84653211043284</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.808165138041048</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.769798165649256</c:v>
+                  <c:v>43.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.731431193257464</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.693064220865679</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.654697248473894</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.61633027608211</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.577963303690325</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.53959633129854</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.50122935890676</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>125.46286238651497</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134.42449541412319</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>143.38612844173139</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>152.34776146933959</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>161.30939449694779</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170.27102752455599</c:v>
+                  <c:v>91.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>142.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>170.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$101:$V$101</c:f>
+              <c:f>Choke!$C$101:$AL$101</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.975433349609375</c:v>
+                  <c:v>34.931106567382813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.9017333984375</c:v>
+                  <c:v>34.759674072265625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.77783203125</c:v>
+                  <c:v>34.622955322265625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.60479736328125</c:v>
+                  <c:v>34.50653076171875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.37835693359375</c:v>
+                  <c:v>34.427490234375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.0985107421875</c:v>
+                  <c:v>34.40185546875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.760986328125</c:v>
+                  <c:v>34.39971923828125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.367919921875</c:v>
+                  <c:v>34.1241455078125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.9150390625</c:v>
+                  <c:v>33.948974609375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.38525390625</c:v>
+                  <c:v>33.8720703125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.787109375</c:v>
+                  <c:v>33.7908935546875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.103515625</c:v>
+                  <c:v>33.6669921875</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>33.58154296875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.572998046875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.154296875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.667236328125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.359619140625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.2998046875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.291259765625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.6845703125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.8984375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.64208984375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.36865234375</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>30.3173828125</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.4287109375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28.4033203125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.1728515625</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25.6689453125</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.65234375</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
+                <c:pt idx="25">
+                  <c:v>29.47998046875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.916015625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.9248046875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.3095703125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.275390625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.11328125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.994140625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.490234375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.19140625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.6875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,6 +3706,707 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-CEBA-48A9-8D40-3D9AFDBF02AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="374139136"/>
+        <c:axId val="374139712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="374139136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит, м3/сут</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374139712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="374139712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t> на входе</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374139136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Давление</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> на входе от дебита пр разных давлениях на выходе</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Choke!$B$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Choke!$C$143:$V$143</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Choke!$C$144:$V$144</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.843902587890625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.43603515625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.095458984375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.7841796875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.564453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.4912109375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.4912109375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.6123046875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.923828125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.5869140625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.1767578125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.6640625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.3125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.90234375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-183D-4AAB-9328-892B57CBFAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Choke!$B$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Choke!$C$143:$Z$143</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Choke!$C$145:$Z$145</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.8919677734375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.615478515625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3865966796875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.183349609375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0478515625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.000244140625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.99658203125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.4765625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.1103515625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.94189453125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.76611328125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.568359375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.4658203125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.36328125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.24609375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.2314453125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.865234375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.07421875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.7265625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.2578125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.4375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-183D-4AAB-9328-892B57CBFAEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3363,16 +4946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>33565</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>538390</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514379</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>159683</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3399,6 +4982,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>832402</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>110986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>339567</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>159164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2D72CD-FE1E-47D9-AAA4-D946D85624AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3408,6 +5029,7 @@
     <sheetNames>
       <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
+      <sheetName val="UniflocVBA_7"/>
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
@@ -3417,8 +5039,9 @@
       <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4291,15 +5914,301 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Worksheet_Choke">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:AQ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143:Z145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4846,33 +6755,33 @@
     <row r="46" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="32" t="s">
+    <row r="51" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
     </row>
-    <row r="52" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B52" s="17" t="s">
         <v>16</v>
       </c>
@@ -4883,360 +6792,787 @@
         <v>1</v>
       </c>
       <c r="E52" s="27">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4</v>
+      </c>
+      <c r="G52" s="28">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2">
         <v>10</v>
       </c>
-      <c r="F52" s="2">
+      <c r="I52" s="2">
         <v>20</v>
       </c>
-      <c r="G52" s="28">
+      <c r="J52" s="2">
         <v>30</v>
       </c>
-      <c r="H52" s="2">
+      <c r="K52" s="2">
         <v>40</v>
       </c>
-      <c r="I52" s="2">
+      <c r="L52" s="2">
         <v>50</v>
       </c>
-      <c r="J52" s="2">
+      <c r="M52" s="2">
+        <v>60</v>
+      </c>
+      <c r="N52" s="2">
+        <v>70</v>
+      </c>
+      <c r="O52" s="2">
+        <v>80</v>
+      </c>
+      <c r="P52" s="2">
+        <v>90</v>
+      </c>
+      <c r="Q52" s="2">
         <v>100</v>
       </c>
-      <c r="K52" s="2">
+      <c r="R52" s="2">
+        <v>110</v>
+      </c>
+      <c r="S52" s="2">
+        <v>120</v>
+      </c>
+      <c r="T52" s="2">
+        <v>130</v>
+      </c>
+      <c r="U52" s="2">
+        <v>140</v>
+      </c>
+      <c r="V52" s="2">
         <v>150</v>
       </c>
-      <c r="L52" s="2">
+      <c r="W52" s="2">
+        <v>160</v>
+      </c>
+      <c r="X52" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>180</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>190</v>
+      </c>
+      <c r="AA52" s="2">
         <v>200</v>
       </c>
-      <c r="M52" s="2">
-        <v>300</v>
-      </c>
-      <c r="N52" s="2">
-        <v>400</v>
+      <c r="AB52" s="2">
+        <v>210</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>220</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>230</v>
       </c>
     </row>
-    <row r="53" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="25">
         <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>2.0049285888671875</v>
+        <v>1.009857177734375</v>
       </c>
       <c r="E53" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>2.55859375</v>
+        <v>1.0400390625</v>
       </c>
       <c r="F53" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>4.6171875</v>
+        <v>1.169921875</v>
       </c>
       <c r="G53" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>6.890625</v>
+        <v>1.857421875</v>
       </c>
       <c r="H53" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.125</v>
+        <v>2.3203125</v>
       </c>
       <c r="I53" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.328125</v>
+        <v>4.6171875</v>
       </c>
       <c r="J53" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.8125</v>
+        <v>6.890625</v>
       </c>
       <c r="K53" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.375</v>
+        <v>9.125</v>
       </c>
       <c r="L53" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.0625</v>
+        <v>11.328125</v>
       </c>
       <c r="M53" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>55.375</v>
+        <v>13.5</v>
       </c>
       <c r="N53" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>68.125</v>
-      </c>
-      <c r="O53" s="3"/>
+        <v>15.625</v>
+      </c>
+      <c r="O53" s="25">
+        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>17.71875</v>
+      </c>
+      <c r="P53" s="25">
+        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.78125</v>
+      </c>
+      <c r="Q53" s="25">
+        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.8125</v>
+      </c>
+      <c r="R53" s="25">
+        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>23.78125</v>
+      </c>
+      <c r="S53" s="25">
+        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.75</v>
+      </c>
+      <c r="T53" s="25">
+        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.625</v>
+      </c>
+      <c r="U53" s="25">
+        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.5</v>
+      </c>
+      <c r="V53" s="25">
+        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.375</v>
+      </c>
+      <c r="W53" s="25">
+        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.1875</v>
+      </c>
+      <c r="X53" s="25">
+        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.9375</v>
+      </c>
+      <c r="Y53" s="25">
+        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>36.6875</v>
+      </c>
+      <c r="Z53" s="25">
+        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>38.375</v>
+      </c>
+      <c r="AA53" s="25">
+        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.0625</v>
+      </c>
+      <c r="AB53" s="25">
+        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.75</v>
+      </c>
+      <c r="AC53" s="25">
+        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>43.375</v>
+      </c>
+      <c r="AD53" s="25">
+        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>44.9375</v>
+      </c>
     </row>
-    <row r="54" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" s="25">
         <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D54" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.001015663146973</v>
+        <v>5.0019979476928711</v>
       </c>
       <c r="E54" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.1019287109375</v>
+        <v>5.0079917907714844</v>
       </c>
       <c r="F54" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.411376953125</v>
+        <v>5.03204345703125</v>
       </c>
       <c r="G54" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.9423828125</v>
+        <v>5.12939453125</v>
       </c>
       <c r="H54" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.708984375</v>
+        <v>5.2032470703125</v>
       </c>
       <c r="I54" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.75390625</v>
+        <v>5.85693359375</v>
       </c>
       <c r="J54" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.796875</v>
+        <v>7.099609375</v>
       </c>
       <c r="K54" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.3671875</v>
+        <v>9.12109375</v>
       </c>
       <c r="L54" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.078125</v>
+        <v>11.328125</v>
       </c>
       <c r="M54" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>55.3125</v>
+        <v>13.49609375</v>
       </c>
       <c r="N54" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>68.125</v>
-      </c>
-      <c r="O54" s="3"/>
+        <v>15.625</v>
+      </c>
+      <c r="O54" s="25">
+        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>17.734375</v>
+      </c>
+      <c r="P54" s="25">
+        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.765625</v>
+      </c>
+      <c r="Q54" s="25">
+        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.796875</v>
+      </c>
+      <c r="R54" s="25">
+        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>23.7890625</v>
+      </c>
+      <c r="S54" s="25">
+        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.7421875</v>
+      </c>
+      <c r="T54" s="25">
+        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.65625</v>
+      </c>
+      <c r="U54" s="25">
+        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.53125</v>
+      </c>
+      <c r="V54" s="25">
+        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.3671875</v>
+      </c>
+      <c r="W54" s="25">
+        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.203125</v>
+      </c>
+      <c r="X54" s="25">
+        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.9609375</v>
+      </c>
+      <c r="Y54" s="25">
+        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>36.71875</v>
+      </c>
+      <c r="Z54" s="25">
+        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>38.4375</v>
+      </c>
+      <c r="AA54" s="25">
+        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.078125</v>
+      </c>
+      <c r="AB54" s="25">
+        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.71875</v>
+      </c>
+      <c r="AC54" s="25">
+        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>43.359375</v>
+      </c>
+      <c r="AD54" s="25">
+        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>44.921875</v>
+      </c>
     </row>
-    <row r="55" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C55" s="25">
         <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D55" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.000519752502441</v>
+        <v>10.001015663146973</v>
       </c>
       <c r="E55" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.0518798828125</v>
+        <v>10.004062652587891</v>
       </c>
       <c r="F55" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.2081298828125</v>
+        <v>10.016250610351563</v>
       </c>
       <c r="G55" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.46875</v>
+        <v>10.06500244140625</v>
       </c>
       <c r="H55" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.8349609375</v>
+        <v>10.1019287109375</v>
       </c>
       <c r="I55" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.30859375</v>
+        <v>10.411376953125</v>
       </c>
       <c r="J55" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.3125</v>
+        <v>10.9423828125</v>
       </c>
       <c r="K55" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.875</v>
+        <v>11.708984375</v>
       </c>
       <c r="L55" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.078125</v>
+        <v>12.75390625</v>
       </c>
       <c r="M55" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>55.3125</v>
+        <v>14.08203125</v>
       </c>
       <c r="N55" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>68.125</v>
-      </c>
-      <c r="O55" s="3"/>
+        <v>15.7421875</v>
+      </c>
+      <c r="O55" s="25">
+        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>17.734375</v>
+      </c>
+      <c r="P55" s="25">
+        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.765625</v>
+      </c>
+      <c r="Q55" s="25">
+        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.796875</v>
+      </c>
+      <c r="R55" s="25">
+        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>23.7890625</v>
+      </c>
+      <c r="S55" s="25">
+        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.7421875</v>
+      </c>
+      <c r="T55" s="25">
+        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.65625</v>
+      </c>
+      <c r="U55" s="25">
+        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.53125</v>
+      </c>
+      <c r="V55" s="25">
+        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.3671875</v>
+      </c>
+      <c r="W55" s="25">
+        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.203125</v>
+      </c>
+      <c r="X55" s="25">
+        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.9609375</v>
+      </c>
+      <c r="Y55" s="25">
+        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>36.71875</v>
+      </c>
+      <c r="Z55" s="25">
+        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>38.4375</v>
+      </c>
+      <c r="AA55" s="25">
+        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.078125</v>
+      </c>
+      <c r="AB55" s="25">
+        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.71875</v>
+      </c>
+      <c r="AC55" s="25">
+        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>43.359375</v>
+      </c>
+      <c r="AD55" s="25">
+        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>44.921875</v>
+      </c>
     </row>
-    <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C56" s="25">
         <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D56" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.000352263450623</v>
+        <v>15.000686645507813</v>
       </c>
       <c r="E56" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.035247802734375</v>
+        <v>15.00274658203125</v>
       </c>
       <c r="F56" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.1409912109375</v>
+        <v>15.010986328125</v>
       </c>
       <c r="G56" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.31768798828125</v>
+        <v>15.0439453125</v>
       </c>
       <c r="H56" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.56396484375</v>
+        <v>15.06866455078125</v>
       </c>
       <c r="I56" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.882568359375</v>
+        <v>15.27557373046875</v>
       </c>
       <c r="J56" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.5009765625</v>
+        <v>15.62255859375</v>
       </c>
       <c r="K56" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>37.734375</v>
+        <v>16.11328125</v>
       </c>
       <c r="L56" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>43.2421875</v>
+        <v>16.7578125</v>
       </c>
       <c r="M56" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>56.015625</v>
+        <v>17.55615234375</v>
       </c>
       <c r="N56" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>68.37890625</v>
-      </c>
-      <c r="O56" s="3"/>
+        <v>18.515625</v>
+      </c>
+      <c r="O56" s="25">
+        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.6435546875</v>
+      </c>
+      <c r="P56" s="25">
+        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.9326171875</v>
+      </c>
+      <c r="Q56" s="25">
+        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>22.3828125</v>
+      </c>
+      <c r="R56" s="25">
+        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>23.994140625</v>
+      </c>
+      <c r="S56" s="25">
+        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.78125</v>
+      </c>
+      <c r="T56" s="25">
+        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.65625</v>
+      </c>
+      <c r="U56" s="25">
+        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.53125</v>
+      </c>
+      <c r="V56" s="25">
+        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.34765625</v>
+      </c>
+      <c r="W56" s="25">
+        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.1640625</v>
+      </c>
+      <c r="X56" s="25">
+        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.98046875</v>
+      </c>
+      <c r="Y56" s="25">
+        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>36.6796875</v>
+      </c>
+      <c r="Z56" s="25">
+        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>38.4375</v>
+      </c>
+      <c r="AA56" s="25">
+        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.078125</v>
+      </c>
+      <c r="AB56" s="25">
+        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.71875</v>
+      </c>
+      <c r="AC56" s="25">
+        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>43.359375</v>
+      </c>
+      <c r="AD56" s="25">
+        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>44.94140625</v>
+      </c>
     </row>
-    <row r="57" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C57" s="25">
         <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D57" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.000269412994385</v>
+        <v>20.000519752502441</v>
       </c>
       <c r="E57" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.027008056640625</v>
+        <v>20.002079010009766</v>
       </c>
       <c r="F57" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.1080322265625</v>
+        <v>20.008316040039063</v>
       </c>
       <c r="G57" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.242919921875</v>
+        <v>20.03326416015625</v>
       </c>
       <c r="H57" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.430908203125</v>
+        <v>20.0518798828125</v>
       </c>
       <c r="I57" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.67138671875</v>
+        <v>20.2081298828125</v>
       </c>
       <c r="J57" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>42.65625</v>
+        <v>20.46875</v>
       </c>
       <c r="K57" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>45.859375</v>
+        <v>20.8349609375</v>
       </c>
       <c r="L57" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.078125</v>
+        <v>21.30859375</v>
       </c>
       <c r="M57" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>60.46875</v>
+        <v>21.89453125</v>
       </c>
       <c r="N57" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>71.71875</v>
-      </c>
-      <c r="O57" s="3"/>
+        <v>22.587890625</v>
+      </c>
+      <c r="O57" s="25">
+        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>23.37890625</v>
+      </c>
+      <c r="P57" s="25">
+        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.296875</v>
+      </c>
+      <c r="Q57" s="25">
+        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.3125</v>
+      </c>
+      <c r="R57" s="25">
+        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>26.4453125</v>
+      </c>
+      <c r="S57" s="25">
+        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.65625</v>
+      </c>
+      <c r="T57" s="25">
+        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>28.984375</v>
+      </c>
+      <c r="U57" s="25">
+        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.390625</v>
+      </c>
+      <c r="V57" s="25">
+        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.875</v>
+      </c>
+      <c r="W57" s="25">
+        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.4375</v>
+      </c>
+      <c r="X57" s="25">
+        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>35.078125</v>
+      </c>
+      <c r="Y57" s="25">
+        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>36.71875</v>
+      </c>
+      <c r="Z57" s="25">
+        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>38.4375</v>
+      </c>
+      <c r="AA57" s="25">
+        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.078125</v>
+      </c>
+      <c r="AB57" s="25">
+        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.71875</v>
+      </c>
+      <c r="AC57" s="25">
+        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>43.359375</v>
+      </c>
+      <c r="AD57" s="25">
+        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>44.921875</v>
+      </c>
     </row>
-    <row r="58" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C58" s="25">
         <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D58" s="25">
         <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.000221282243729</v>
+        <v>30.000352263450623</v>
       </c>
       <c r="E58" s="25">
         <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.022125244140625</v>
+        <v>30.00140905380249</v>
       </c>
       <c r="F58" s="25">
         <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.0885009765625</v>
+        <v>30.005636215209961</v>
       </c>
       <c r="G58" s="25">
         <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.199127197265625</v>
+        <v>30.022544860839844</v>
       </c>
       <c r="H58" s="25">
         <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.35247802734375</v>
+        <v>30.035247802734375</v>
       </c>
       <c r="I58" s="25">
         <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>50.55084228515625</v>
+        <v>30.1409912109375</v>
       </c>
       <c r="J58" s="25">
         <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>52.178955078125</v>
+        <v>30.31768798828125</v>
       </c>
       <c r="K58" s="25">
         <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>54.8095703125</v>
+        <v>30.56396484375</v>
       </c>
       <c r="L58" s="25">
         <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>58.30078125</v>
+        <v>30.882568359375</v>
       </c>
       <c r="M58" s="25">
         <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>67.236328125</v>
+        <v>31.26708984375</v>
       </c>
       <c r="N58" s="25">
         <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>77.44140625</v>
+        <v>31.72119140625</v>
+      </c>
+      <c r="O58" s="25">
+        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>32.24853515625</v>
+      </c>
+      <c r="P58" s="25">
+        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>32.841796875</v>
+      </c>
+      <c r="Q58" s="25">
+        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.5009765625</v>
+      </c>
+      <c r="R58" s="25">
+        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>34.21875</v>
+      </c>
+      <c r="S58" s="25">
+        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>35.009765625</v>
+      </c>
+      <c r="T58" s="25">
+        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>35.859375</v>
+      </c>
+      <c r="U58" s="25">
+        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>36.767578125</v>
+      </c>
+      <c r="V58" s="25">
+        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>37.734375</v>
+      </c>
+      <c r="W58" s="25">
+        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>38.73046875</v>
+      </c>
+      <c r="X58" s="25">
+        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>39.78515625</v>
+      </c>
+      <c r="Y58" s="25">
+        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.8984375</v>
+      </c>
+      <c r="Z58" s="25">
+        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>42.041015625</v>
+      </c>
+      <c r="AA58" s="25">
+        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>43.2421875</v>
+      </c>
+      <c r="AB58" s="25">
+        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>44.4140625</v>
+      </c>
+      <c r="AC58" s="25">
+        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>45.64453125</v>
+      </c>
+      <c r="AD58" s="25">
+        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>46.93359375</v>
       </c>
     </row>
-    <row r="59" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
@@ -5244,7 +7580,7 @@
       <c r="G59" s="5"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
@@ -5252,7 +7588,7 @@
       <c r="G60" s="5"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
@@ -5260,7 +7596,7 @@
       <c r="G61" s="5"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
@@ -5268,7 +7604,7 @@
       <c r="G62" s="5"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
@@ -5276,7 +7612,7 @@
       <c r="G63" s="5"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
@@ -5389,7 +7725,7 @@
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B93" s="31" t="s">
         <v>46</v>
       </c>
@@ -5398,23 +7734,23 @@
         <v>170.27102752455599</v>
       </c>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C94" s="33" t="s">
+    <row r="94" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C94" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="32"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="32"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B95" s="30" t="s">
         <v>45</v>
       </c>
@@ -5422,83 +7758,117 @@
         <v>0</v>
       </c>
       <c r="D95" s="27">
-        <f>C95+$C$93/19</f>
-        <v>8.9616330276082099</v>
+        <v>15</v>
       </c>
       <c r="E95" s="27">
-        <f t="shared" ref="E95:V95" si="0">D95+$C$93/19</f>
-        <v>17.92326605521642</v>
+        <v>28</v>
       </c>
       <c r="F95" s="27">
-        <f t="shared" si="0"/>
-        <v>26.884899082824631</v>
+        <v>35</v>
       </c>
       <c r="G95" s="27">
-        <f t="shared" si="0"/>
-        <v>35.84653211043284</v>
+        <v>40</v>
       </c>
       <c r="H95" s="27">
-        <f t="shared" si="0"/>
-        <v>44.808165138041048</v>
+        <v>43</v>
       </c>
       <c r="I95" s="27">
-        <f t="shared" si="0"/>
-        <v>53.769798165649256</v>
+        <v>43.96</v>
       </c>
       <c r="J95" s="27">
-        <f t="shared" si="0"/>
-        <v>62.731431193257464</v>
+        <v>44</v>
       </c>
       <c r="K95" s="27">
-        <f t="shared" si="0"/>
-        <v>71.693064220865679</v>
+        <v>53</v>
       </c>
       <c r="L95" s="27">
-        <f t="shared" si="0"/>
-        <v>80.654697248473894</v>
+        <v>58</v>
       </c>
       <c r="M95" s="27">
-        <f t="shared" si="0"/>
-        <v>89.61633027608211</v>
+        <v>60</v>
       </c>
       <c r="N95" s="27">
-        <f t="shared" si="0"/>
-        <v>98.577963303690325</v>
+        <v>62</v>
       </c>
       <c r="O95" s="27">
-        <f t="shared" si="0"/>
-        <v>107.53959633129854</v>
+        <v>65</v>
       </c>
       <c r="P95" s="27">
-        <f t="shared" si="0"/>
-        <v>116.50122935890676</v>
+        <v>67</v>
       </c>
       <c r="Q95" s="27">
-        <f t="shared" si="0"/>
-        <v>125.46286238651497</v>
+        <v>67.2</v>
       </c>
       <c r="R95" s="27">
-        <f t="shared" si="0"/>
-        <v>134.42449541412319</v>
+        <v>76</v>
       </c>
       <c r="S95" s="27">
-        <f t="shared" si="0"/>
-        <v>143.38612844173139</v>
+        <v>85</v>
       </c>
       <c r="T95" s="27">
-        <f t="shared" si="0"/>
-        <v>152.34776146933959</v>
+        <v>90</v>
       </c>
       <c r="U95" s="27">
-        <f t="shared" si="0"/>
-        <v>161.30939449694779</v>
+        <v>91</v>
       </c>
       <c r="V95" s="27">
-        <f t="shared" si="0"/>
-        <v>170.27102752455599</v>
-      </c>
+        <v>91.1</v>
+      </c>
+      <c r="W95" s="35">
+        <v>100</v>
+      </c>
+      <c r="X95" s="35">
+        <v>110</v>
+      </c>
+      <c r="Y95" s="35">
+        <v>113</v>
+      </c>
+      <c r="Z95" s="35">
+        <v>116</v>
+      </c>
+      <c r="AA95" s="35">
+        <v>116.5</v>
+      </c>
+      <c r="AB95" s="35">
+        <v>125</v>
+      </c>
+      <c r="AC95" s="35">
+        <v>130</v>
+      </c>
+      <c r="AD95" s="35">
+        <v>138</v>
+      </c>
+      <c r="AE95" s="35">
+        <v>142.5</v>
+      </c>
+      <c r="AF95" s="35">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="AG95" s="35">
+        <v>150</v>
+      </c>
+      <c r="AH95" s="35">
+        <v>160</v>
+      </c>
+      <c r="AI95" s="35">
+        <v>165</v>
+      </c>
+      <c r="AJ95" s="35">
+        <v>168</v>
+      </c>
+      <c r="AK95" s="35">
+        <v>170</v>
+      </c>
+      <c r="AL95" s="35">
+        <v>170.3</v>
+      </c>
+      <c r="AM95" s="35"/>
+      <c r="AN95" s="35"/>
+      <c r="AO95" s="35"/>
+      <c r="AP95" s="35"/>
+      <c r="AQ95" s="35"/>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
         <v>10</v>
       </c>
@@ -5508,27 +7878,27 @@
       </c>
       <c r="D96" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.9176025390625</v>
+        <v>9.764404296875</v>
       </c>
       <c r="E96" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.658203125</v>
+        <v>9.0966796875</v>
       </c>
       <c r="F96" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.1796875</v>
+        <v>8.4375</v>
       </c>
       <c r="G96" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>8.330078125</v>
+        <v>7.67578125</v>
       </c>
       <c r="H96" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>6.8359375</v>
       </c>
       <c r="I96" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>5.625</v>
       </c>
       <c r="J96" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
@@ -5582,8 +7952,77 @@
         <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
+      <c r="W96" s="25">
+        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="X96" s="25">
+        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y96" s="25">
+        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z96" s="25">
+        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA96" s="25">
+        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AB96" s="25">
+        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC96" s="25">
+        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD96" s="25">
+        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE96" s="25">
+        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF96" s="25">
+        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG96" s="25">
+        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH96" s="25">
+        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI96" s="25">
+        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ96" s="25">
+        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK96" s="25">
+        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL96" s="25">
+        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM96" s="25"/>
+      <c r="AN96" s="25"/>
+      <c r="AO96" s="25"/>
+      <c r="AP96" s="25"/>
+      <c r="AQ96" s="25"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
         <v>15</v>
       </c>
@@ -5593,55 +8032,55 @@
       </c>
       <c r="D97" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.944610595703125</v>
+        <v>14.843902587890625</v>
       </c>
       <c r="E97" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.77569580078125</v>
+        <v>14.43603515625</v>
       </c>
       <c r="F97" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.483642578125</v>
+        <v>14.095458984375</v>
       </c>
       <c r="G97" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.0478515625</v>
+        <v>13.7841796875</v>
       </c>
       <c r="H97" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.42529296875</v>
+        <v>13.564453125</v>
       </c>
       <c r="I97" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.5244140625</v>
+        <v>13.4912109375</v>
       </c>
       <c r="J97" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.015625</v>
+        <v>13.4912109375</v>
       </c>
       <c r="K97" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>12.6123046875</v>
       </c>
       <c r="L97" s="25">
         <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>11.923828125</v>
       </c>
       <c r="M97" s="25">
         <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>11.5869140625</v>
       </c>
       <c r="N97" s="25">
         <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>11.1767578125</v>
       </c>
       <c r="O97" s="25">
         <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>10.3125</v>
       </c>
       <c r="P97" s="25">
         <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>8.4375</v>
       </c>
       <c r="Q97" s="25">
         <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
@@ -5667,8 +8106,77 @@
         <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
+      <c r="W97" s="25">
+        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="X97" s="25">
+        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y97" s="25">
+        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z97" s="25">
+        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA97" s="25">
+        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AB97" s="25">
+        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC97" s="25">
+        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD97" s="25">
+        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE97" s="25">
+        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF97" s="25">
+        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG97" s="25">
+        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH97" s="25">
+        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI97" s="25">
+        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ97" s="25">
+        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK97" s="25">
+        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL97" s="25">
+        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM97" s="25"/>
+      <c r="AN97" s="25"/>
+      <c r="AO97" s="25"/>
+      <c r="AP97" s="25"/>
+      <c r="AQ97" s="25"/>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
         <v>20</v>
       </c>
@@ -5678,82 +8186,151 @@
       </c>
       <c r="D98" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.95819091796875</v>
+        <v>19.8822021484375</v>
       </c>
       <c r="E98" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.83154296875</v>
+        <v>19.58251953125</v>
       </c>
       <c r="F98" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.61669921875</v>
+        <v>19.33837890625</v>
       </c>
       <c r="G98" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.306640625</v>
+        <v>19.1259765625</v>
       </c>
       <c r="H98" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.88671875</v>
+        <v>18.98193359375</v>
       </c>
       <c r="I98" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.3447265625</v>
+        <v>18.9306640625</v>
       </c>
       <c r="J98" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.646484375</v>
+        <v>18.9306640625</v>
       </c>
       <c r="K98" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>16.71875</v>
+        <v>18.3984375</v>
       </c>
       <c r="L98" s="25">
         <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.4296875</v>
+        <v>18.037109375</v>
       </c>
       <c r="M98" s="25">
         <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.96875</v>
+        <v>17.880859375</v>
       </c>
       <c r="N98" s="25">
         <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>17.705078125</v>
       </c>
       <c r="O98" s="25">
         <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>17.431640625</v>
       </c>
       <c r="P98" s="25">
         <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>17.236328125</v>
       </c>
       <c r="Q98" s="25">
         <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>17.216796875</v>
       </c>
       <c r="R98" s="25">
         <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>16.171875</v>
       </c>
       <c r="S98" s="25">
         <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>14.53125</v>
       </c>
       <c r="T98" s="25">
         <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>12.8125</v>
       </c>
       <c r="U98" s="25">
         <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>11.25</v>
       </c>
       <c r="V98" s="25">
         <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
+      <c r="W98" s="25">
+        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="X98" s="25">
+        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y98" s="25">
+        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z98" s="25">
+        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA98" s="25">
+        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AB98" s="25">
+        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC98" s="25">
+        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD98" s="25">
+        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE98" s="25">
+        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF98" s="25">
+        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG98" s="25">
+        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH98" s="25">
+        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI98" s="25">
+        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ98" s="25">
+        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK98" s="25">
+        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL98" s="25">
+        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM98" s="25"/>
+      <c r="AN98" s="25"/>
+      <c r="AO98" s="25"/>
+      <c r="AP98" s="25"/>
+      <c r="AQ98" s="25"/>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
         <v>25</v>
       </c>
@@ -5763,82 +8340,151 @@
       </c>
       <c r="D99" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.966239929199219</v>
+        <v>24.9053955078125</v>
       </c>
       <c r="E99" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.86419677734375</v>
+        <v>24.666595458984375</v>
       </c>
       <c r="F99" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.69329833984375</v>
+        <v>24.47509765625</v>
       </c>
       <c r="G99" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.4476318359375</v>
+        <v>24.310302734375</v>
       </c>
       <c r="H99" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.127197265625</v>
+        <v>24.1973876953125</v>
       </c>
       <c r="I99" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.71826171875</v>
+        <v>24.1607666015625</v>
       </c>
       <c r="J99" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.2177734375</v>
+        <v>24.15771484375</v>
       </c>
       <c r="K99" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.607421875</v>
+        <v>23.760986328125</v>
       </c>
       <c r="L99" s="25">
         <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.86279296875</v>
+        <v>23.49853515625</v>
       </c>
       <c r="M99" s="25">
         <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.947265625</v>
+        <v>23.382568359375</v>
       </c>
       <c r="N99" s="25">
         <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.775390625</v>
+        <v>23.2666015625</v>
       </c>
       <c r="O99" s="25">
         <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.115234375</v>
+        <v>23.077392578125</v>
       </c>
       <c r="P99" s="25">
         <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>22.943115234375</v>
       </c>
       <c r="Q99" s="25">
         <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>22.930908203125</v>
       </c>
       <c r="R99" s="25">
         <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>22.265625</v>
       </c>
       <c r="S99" s="25">
         <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>21.435546875</v>
       </c>
       <c r="T99" s="25">
         <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>20.8984375</v>
       </c>
       <c r="U99" s="25">
         <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>20.7763671875</v>
       </c>
       <c r="V99" s="25">
         <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
+        <v>20.7763671875</v>
+      </c>
+      <c r="W99" s="25">
+        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.5556640625</v>
+      </c>
+      <c r="X99" s="25">
+        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>17.529296875</v>
+      </c>
+      <c r="Y99" s="25">
+        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>16.552734375</v>
+      </c>
+      <c r="Z99" s="25">
+        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.84375</v>
+      </c>
+      <c r="AA99" s="25">
+        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AB99" s="25">
+        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC99" s="25">
+        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD99" s="25">
+        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE99" s="25">
+        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF99" s="25">
+        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG99" s="25">
+        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH99" s="25">
+        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI99" s="25">
+        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ99" s="25">
+        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK99" s="25">
+        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL99" s="25">
+        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM99" s="25"/>
+      <c r="AN99" s="25"/>
+      <c r="AO99" s="25"/>
+      <c r="AP99" s="25"/>
+      <c r="AQ99" s="25"/>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
         <v>30</v>
       </c>
@@ -5848,82 +8494,151 @@
       </c>
       <c r="D100" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.97161865234375</v>
+        <v>29.92034912109375</v>
       </c>
       <c r="E100" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.886474609375</v>
+        <v>29.72076416015625</v>
       </c>
       <c r="F100" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.74273681640625</v>
+        <v>29.5623779296875</v>
       </c>
       <c r="G100" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.5404052734375</v>
+        <v>29.425048828125</v>
       </c>
       <c r="H100" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.27490234375</v>
+        <v>29.33349609375</v>
       </c>
       <c r="I100" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.9453125</v>
+        <v>29.30419921875</v>
       </c>
       <c r="J100" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.546142578125</v>
+        <v>29.3023681640625</v>
       </c>
       <c r="K100" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.07373046875</v>
+        <v>28.978271484375</v>
       </c>
       <c r="L100" s="25">
         <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.509765625</v>
+        <v>28.765869140625</v>
       </c>
       <c r="M100" s="25">
         <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>26.865234375</v>
+        <v>28.67431640625</v>
       </c>
       <c r="N100" s="25">
         <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>26.0888671875</v>
+        <v>28.5791015625</v>
       </c>
       <c r="O100" s="25">
         <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.1806640625</v>
+        <v>28.4326171875</v>
       </c>
       <c r="P100" s="25">
         <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.08203125</v>
+        <v>28.330078125</v>
       </c>
       <c r="Q100" s="25">
         <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.734375</v>
+        <v>28.32275390625</v>
       </c>
       <c r="R100" s="25">
         <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.80078125</v>
+        <v>27.8173828125</v>
       </c>
       <c r="S100" s="25">
         <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>27.20947265625</v>
       </c>
       <c r="T100" s="25">
         <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>26.8212890625</v>
       </c>
       <c r="U100" s="25">
         <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
+        <v>26.748046875</v>
       </c>
       <c r="V100" s="25">
         <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
+        <v>26.7333984375</v>
+      </c>
+      <c r="W100" s="25">
+        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.95703125</v>
+      </c>
+      <c r="X100" s="25">
+        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.90234375</v>
+      </c>
+      <c r="Y100" s="25">
+        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.55078125</v>
+      </c>
+      <c r="Z100" s="25">
+        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.140625</v>
+      </c>
+      <c r="AA100" s="25">
+        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.08203125</v>
+      </c>
+      <c r="AB100" s="25">
+        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>22.79296875</v>
+      </c>
+      <c r="AC100" s="25">
+        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.85546875</v>
+      </c>
+      <c r="AD100" s="25">
+        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.6875</v>
+      </c>
+      <c r="AE100" s="25">
+        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>16.875</v>
+      </c>
+      <c r="AF100" s="25">
+        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG100" s="25">
+        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH100" s="25">
+        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI100" s="25">
+        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ100" s="25">
+        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK100" s="25">
+        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL100" s="25">
+        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM100" s="25"/>
+      <c r="AN100" s="25"/>
+      <c r="AO100" s="25"/>
+      <c r="AP100" s="25"/>
+      <c r="AQ100" s="25"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>35</v>
       </c>
@@ -5933,79 +8648,432 @@
       </c>
       <c r="D101" s="25">
         <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.975433349609375</v>
+        <v>34.931106567382813</v>
       </c>
       <c r="E101" s="25">
         <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.9017333984375</v>
+        <v>34.759674072265625</v>
       </c>
       <c r="F101" s="25">
         <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.77783203125</v>
+        <v>34.622955322265625</v>
       </c>
       <c r="G101" s="25">
         <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.60479736328125</v>
+        <v>34.50653076171875</v>
       </c>
       <c r="H101" s="25">
         <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.37835693359375</v>
+        <v>34.427490234375</v>
       </c>
       <c r="I101" s="25">
         <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.0985107421875</v>
+        <v>34.40185546875</v>
       </c>
       <c r="J101" s="25">
         <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.760986328125</v>
+        <v>34.39971923828125</v>
       </c>
       <c r="K101" s="25">
         <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.367919921875</v>
+        <v>34.1241455078125</v>
       </c>
       <c r="L101" s="25">
         <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.9150390625</v>
+        <v>33.948974609375</v>
       </c>
       <c r="M101" s="25">
         <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.38525390625</v>
+        <v>33.8720703125</v>
       </c>
       <c r="N101" s="25">
         <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.787109375</v>
+        <v>33.7908935546875</v>
       </c>
       <c r="O101" s="25">
         <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.103515625</v>
+        <v>33.6669921875</v>
       </c>
       <c r="P101" s="25">
         <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.3173828125</v>
+        <v>33.58154296875</v>
       </c>
       <c r="Q101" s="25">
         <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.4287109375</v>
+        <v>33.572998046875</v>
       </c>
       <c r="R101" s="25">
         <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.4033203125</v>
+        <v>33.154296875</v>
       </c>
       <c r="S101" s="25">
         <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.1728515625</v>
+        <v>32.667236328125</v>
       </c>
       <c r="T101" s="25">
         <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.6689453125</v>
+        <v>32.359619140625</v>
       </c>
       <c r="U101" s="25">
         <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.65234375</v>
+        <v>32.2998046875</v>
       </c>
       <c r="V101" s="25">
         <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>32.291259765625</v>
+      </c>
+      <c r="W101" s="25">
+        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.6845703125</v>
+      </c>
+      <c r="X101" s="25">
+        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.8984375</v>
+      </c>
+      <c r="Y101" s="25">
+        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.64208984375</v>
+      </c>
+      <c r="Z101" s="25">
+        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.36865234375</v>
+      </c>
+      <c r="AA101" s="25">
+        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.3173828125</v>
+      </c>
+      <c r="AB101" s="25">
+        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>29.47998046875</v>
+      </c>
+      <c r="AC101" s="25">
+        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>28.916015625</v>
+      </c>
+      <c r="AD101" s="25">
+        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.9248046875</v>
+      </c>
+      <c r="AE101" s="25">
+        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.3095703125</v>
+      </c>
+      <c r="AF101" s="25">
+        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>27.275390625</v>
+      </c>
+      <c r="AG101" s="25">
+        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>26.11328125</v>
+      </c>
+      <c r="AH101" s="25">
+        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>23.994140625</v>
+      </c>
+      <c r="AI101" s="25">
+        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>22.490234375</v>
+      </c>
+      <c r="AJ101" s="25">
+        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.19140625</v>
+      </c>
+      <c r="AK101" s="25">
+        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>19.6875</v>
+      </c>
+      <c r="AL101" s="25">
+        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM101" s="25"/>
+      <c r="AN101" s="25"/>
+      <c r="AO101" s="25"/>
+      <c r="AP101" s="25"/>
+      <c r="AQ101" s="25"/>
+    </row>
+    <row r="141" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B143" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="2">
         <v>0</v>
+      </c>
+      <c r="D143" s="27">
+        <v>15</v>
+      </c>
+      <c r="E143" s="27">
+        <v>28</v>
+      </c>
+      <c r="F143" s="27">
+        <v>35</v>
+      </c>
+      <c r="G143" s="27">
+        <v>40</v>
+      </c>
+      <c r="H143" s="27">
+        <v>43</v>
+      </c>
+      <c r="I143" s="27">
+        <v>43.96</v>
+      </c>
+      <c r="J143" s="27">
+        <v>44</v>
+      </c>
+      <c r="K143" s="27">
+        <v>53</v>
+      </c>
+      <c r="L143" s="27">
+        <v>58</v>
+      </c>
+      <c r="M143" s="27">
+        <v>60</v>
+      </c>
+      <c r="N143" s="27">
+        <v>62</v>
+      </c>
+      <c r="O143" s="27">
+        <v>64</v>
+      </c>
+      <c r="P143" s="27">
+        <v>65</v>
+      </c>
+      <c r="Q143" s="27">
+        <v>66</v>
+      </c>
+      <c r="R143" s="27">
+        <v>67</v>
+      </c>
+      <c r="S143" s="27">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="T143" s="27">
+        <v>70</v>
+      </c>
+      <c r="U143" s="27">
+        <v>75</v>
+      </c>
+      <c r="V143" s="27">
+        <v>78</v>
+      </c>
+      <c r="W143" s="27">
+        <v>79.5</v>
+      </c>
+      <c r="X143" s="27">
+        <v>80.2</v>
+      </c>
+      <c r="Y143" s="27">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="Z143" s="27">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B144" s="2">
+        <v>15</v>
+      </c>
+      <c r="C144" s="25">
+        <f>[1]!MF_p_choke_atma(C$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>15</v>
+      </c>
+      <c r="D144" s="25">
+        <f>[1]!MF_p_choke_atma(D$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.843902587890625</v>
+      </c>
+      <c r="E144" s="25">
+        <f>[1]!MF_p_choke_atma(E$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.43603515625</v>
+      </c>
+      <c r="F144" s="25">
+        <f>[1]!MF_p_choke_atma(F$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.095458984375</v>
+      </c>
+      <c r="G144" s="25">
+        <f>[1]!MF_p_choke_atma(G$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.7841796875</v>
+      </c>
+      <c r="H144" s="25">
+        <f>[1]!MF_p_choke_atma(H$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.564453125</v>
+      </c>
+      <c r="I144" s="25">
+        <f>[1]!MF_p_choke_atma(I$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.4912109375</v>
+      </c>
+      <c r="J144" s="25">
+        <f>[1]!MF_p_choke_atma(J$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.4912109375</v>
+      </c>
+      <c r="K144" s="25">
+        <f>[1]!MF_p_choke_atma(K$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>12.6123046875</v>
+      </c>
+      <c r="L144" s="25">
+        <f>[1]!MF_p_choke_atma(L$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.923828125</v>
+      </c>
+      <c r="M144" s="25">
+        <f>[1]!MF_p_choke_atma(M$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.5869140625</v>
+      </c>
+      <c r="N144" s="25">
+        <f>[1]!MF_p_choke_atma(N$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.1767578125</v>
+      </c>
+      <c r="O144" s="25">
+        <f>[1]!MF_p_choke_atma(O$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.6640625</v>
+      </c>
+      <c r="P144" s="25">
+        <f>[1]!MF_p_choke_atma(P$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.3125</v>
+      </c>
+      <c r="Q144" s="25">
+        <f>[1]!MF_p_choke_atma(Q$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>9.90234375</v>
+      </c>
+      <c r="R144" s="25">
+        <f>[1]!MF_p_choke_atma(R$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>8.4375</v>
+      </c>
+      <c r="S144" s="25">
+        <f>[1]!MF_p_choke_atma(S$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="T144" s="25">
+        <f>[1]!MF_p_choke_atma(T$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="U144" s="25">
+        <f>[1]!MF_p_choke_atma(U$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="V144" s="25">
+        <f>[1]!MF_p_choke_atma(V$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="W144" s="25">
+        <f>[1]!MF_p_choke_atma(W$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="X144" s="25">
+        <f>[1]!MF_p_choke_atma(X$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y144" s="25">
+        <f>[1]!MF_p_choke_atma(Y$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z144" s="25">
+        <f>[1]!MF_p_choke_atma(Z$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B145" s="2">
+        <v>15</v>
+      </c>
+      <c r="C145" s="25">
+        <f>[1]!MF_p_choke_atma(C$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>15</v>
+      </c>
+      <c r="D145" s="25">
+        <f>[1]!MF_p_choke_atma(D$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.8919677734375</v>
+      </c>
+      <c r="E145" s="25">
+        <f>[1]!MF_p_choke_atma(E$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.615478515625</v>
+      </c>
+      <c r="F145" s="25">
+        <f>[1]!MF_p_choke_atma(F$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.3865966796875</v>
+      </c>
+      <c r="G145" s="25">
+        <f>[1]!MF_p_choke_atma(G$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.183349609375</v>
+      </c>
+      <c r="H145" s="25">
+        <f>[1]!MF_p_choke_atma(H$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.0478515625</v>
+      </c>
+      <c r="I145" s="25">
+        <f>[1]!MF_p_choke_atma(I$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.000244140625</v>
+      </c>
+      <c r="J145" s="25">
+        <f>[1]!MF_p_choke_atma(J$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>13.99658203125</v>
+      </c>
+      <c r="K145" s="25">
+        <f>[1]!MF_p_choke_atma(K$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>13.4765625</v>
+      </c>
+      <c r="L145" s="25">
+        <f>[1]!MF_p_choke_atma(L$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>13.1103515625</v>
+      </c>
+      <c r="M145" s="25">
+        <f>[1]!MF_p_choke_atma(M$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.94189453125</v>
+      </c>
+      <c r="N145" s="25">
+        <f>[1]!MF_p_choke_atma(N$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.76611328125</v>
+      </c>
+      <c r="O145" s="25">
+        <f>[1]!MF_p_choke_atma(O$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.568359375</v>
+      </c>
+      <c r="P145" s="25">
+        <f>[1]!MF_p_choke_atma(P$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.4658203125</v>
+      </c>
+      <c r="Q145" s="25">
+        <f>[1]!MF_p_choke_atma(Q$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.36328125</v>
+      </c>
+      <c r="R145" s="25">
+        <f>[1]!MF_p_choke_atma(R$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.24609375</v>
+      </c>
+      <c r="S145" s="25">
+        <f>[1]!MF_p_choke_atma(S$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.2314453125</v>
+      </c>
+      <c r="T145" s="25">
+        <f>[1]!MF_p_choke_atma(T$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>11.865234375</v>
+      </c>
+      <c r="U145" s="25">
+        <f>[1]!MF_p_choke_atma(U$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>11.07421875</v>
+      </c>
+      <c r="V145" s="25">
+        <f>[1]!MF_p_choke_atma(V$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>10.3125</v>
+      </c>
+      <c r="W145" s="25">
+        <f>[1]!MF_p_choke_atma(W$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>9.7265625</v>
+      </c>
+      <c r="X145" s="25">
+        <f>[1]!MF_p_choke_atma(X$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>9.2578125</v>
+      </c>
+      <c r="Y145" s="25">
+        <f>[1]!MF_p_choke_atma(Y$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>8.4375</v>
+      </c>
+      <c r="Z145" s="25">
+        <f>[1]!MF_p_choke_atma(Z$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/exercises/ex040.MF_choke.xlsx
+++ b/exercises/ex040.MF_choke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756417F-35BF-4B89-A50C-A822863FC8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1C97AD-B6CA-49E5-9524-27D1D4F2B2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choke" sheetId="118" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="Bob_" localSheetId="0">Choke!$C$14</definedName>
-    <definedName name="cf_">Choke!$C$141</definedName>
+    <definedName name="cf_">Choke!$C$100</definedName>
     <definedName name="d_choke">Choke!$C$22</definedName>
     <definedName name="d_pipe">Choke!$C$21</definedName>
     <definedName name="fw_" localSheetId="0">Choke!$C$18</definedName>
@@ -30,12 +30,12 @@
     <definedName name="gamma_wat_kf_">Choke!$C$16</definedName>
     <definedName name="muob_" localSheetId="0">Choke!$C$15</definedName>
     <definedName name="Pb_" localSheetId="0">Choke!$C$12</definedName>
-    <definedName name="Pbuf_">Choke!$C$31</definedName>
-    <definedName name="Plin_">Choke!$C$35</definedName>
-    <definedName name="PVT_str_gas_">Choke!$C$25</definedName>
-    <definedName name="PVT_str_wat_">Choke!$C$26</definedName>
-    <definedName name="PVTstr_">Choke!$C$24</definedName>
-    <definedName name="Qliq_">Choke!$C$30</definedName>
+    <definedName name="Pbuf_">Choke!$C$24</definedName>
+    <definedName name="Plin_">Choke!$C$25</definedName>
+    <definedName name="PVT_str_gas_">Choke!#REF!</definedName>
+    <definedName name="PVT_str_wat_">Choke!$F$26</definedName>
+    <definedName name="PVTstr_">Choke!$F$25</definedName>
+    <definedName name="Qliq_">Choke!$C$23</definedName>
     <definedName name="Rp_" localSheetId="0">Choke!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="0">Choke!$C$10</definedName>
     <definedName name="T_choke">Choke!$C$19</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Физико - химические свойства флюида   PVT</t>
   </si>
@@ -98,15 +98,6 @@
     <t>мм</t>
   </si>
   <si>
-    <t>Диаметр трубы</t>
-  </si>
-  <si>
-    <t>Диаметр штуцера</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Температура на входе </t>
-  </si>
-  <si>
     <t>Рвых</t>
   </si>
   <si>
@@ -125,16 +116,10 @@
     <t>м3/сут</t>
   </si>
   <si>
-    <t>Буферное давление</t>
-  </si>
-  <si>
     <t>атм</t>
   </si>
   <si>
     <t>Рассчитать линейное давление</t>
-  </si>
-  <si>
-    <t>Линейное давление</t>
   </si>
   <si>
     <t>Рассчитать буферное давление</t>
@@ -391,12 +376,6 @@
     </r>
   </si>
   <si>
-    <t>PVT строка газ</t>
-  </si>
-  <si>
-    <t>PVT строка вода</t>
-  </si>
-  <si>
     <t>пример расчета характеристик штуцера</t>
   </si>
   <si>
@@ -404,6 +383,78 @@
   </si>
   <si>
     <t>qmax</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+      </rPr>
+      <t>tub</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+      </rPr>
+      <t>choke</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+      </rPr>
+      <t>line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+      </rPr>
+      <t>buf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+      </rPr>
+      <t>liq</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -414,7 +465,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -524,8 +575,17 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +616,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -645,6 +717,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -657,7 +738,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,9 +754,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,20 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,12 +800,14 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,8 +816,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -848,7 +940,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$53</c:f>
+              <c:f>Choke!$H$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -859,7 +951,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$AD$52</c:f>
+              <c:f>Choke!$I$30:$AJ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -952,94 +1044,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$53:$AD$53</c:f>
+              <c:f>Choke!$I$31:$AJ$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.009857177734375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0400390625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.169921875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.857421875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3203125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6171875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.890625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.328125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.71875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.78125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.8125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.78125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31.375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.1875</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.9375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.6875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.0625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41.75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44.9375</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1055,7 +1063,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$54</c:f>
+              <c:f>Choke!$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1066,7 +1074,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$AD$52</c:f>
+              <c:f>Choke!$I$30:$AJ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1159,94 +1167,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$54:$AD$54</c:f>
+              <c:f>Choke!$I$32:$AJ$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0019979476928711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0079917907714844</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.03204345703125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.12939453125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2032470703125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.85693359375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.099609375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.12109375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.328125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.49609375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.734375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.765625</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.796875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.7890625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.7421875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.65625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.53125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31.3671875</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.203125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.9609375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.71875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.4375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.078125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41.71875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.359375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44.921875</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1262,7 +1186,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$55</c:f>
+              <c:f>Choke!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1273,7 +1197,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$AD$52</c:f>
+              <c:f>Choke!$I$30:$AJ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1366,94 +1290,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$55:$AD$55</c:f>
+              <c:f>Choke!$I$33:$AJ$33</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.001015663146973</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.004062652587891</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.016250610351563</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.06500244140625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.1019287109375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.411376953125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.9423828125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.708984375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.75390625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.08203125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.7421875</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.734375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.765625</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.796875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.7890625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.7421875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.65625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.53125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31.3671875</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.203125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.9609375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.71875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.4375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.078125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41.71875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.359375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44.921875</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1469,7 +1309,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$56</c:f>
+              <c:f>Choke!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1504,7 +1344,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$AD$52</c:f>
+              <c:f>Choke!$I$30:$AJ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1597,94 +1437,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$56:$AD$56</c:f>
+              <c:f>Choke!$I$34:$AJ$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.000686645507813</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.00274658203125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.010986328125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.0439453125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.06866455078125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.27557373046875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.62255859375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.11328125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.7578125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.55615234375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.515625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.6435546875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.9326171875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.3828125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.994140625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.78125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.65625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.53125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31.34765625</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.1640625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.98046875</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.6796875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.4375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.078125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41.71875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.359375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44.94140625</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1700,7 +1456,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$57</c:f>
+              <c:f>Choke!$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1711,7 +1467,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$AD$52</c:f>
+              <c:f>Choke!$I$30:$AJ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1804,94 +1560,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$57:$AD$57</c:f>
+              <c:f>Choke!$I$35:$AJ$35</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.000519752502441</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.002079010009766</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.008316040039063</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.03326416015625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.0518798828125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.2081298828125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.46875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.8349609375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.30859375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.89453125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.587890625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.37890625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.296875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.3125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26.4453125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.65625</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.984375</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30.390625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31.875</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.4375</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35.078125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.71875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.4375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.078125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41.71875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.359375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44.921875</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1907,7 +1579,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$58</c:f>
+              <c:f>Choke!$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1918,7 +1590,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$52:$AD$52</c:f>
+              <c:f>Choke!$I$30:$AJ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2011,94 +1683,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$58:$AD$58</c:f>
+              <c:f>Choke!$I$36:$AJ$36</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.000352263450623</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.00140905380249</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.005636215209961</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.022544860839844</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.035247802734375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.1409912109375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.31768798828125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.56396484375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.882568359375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31.26708984375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31.72119140625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32.24853515625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.841796875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33.5009765625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34.21875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35.009765625</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.859375</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36.767578125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37.734375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>38.73046875</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>39.78515625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>40.8984375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42.041015625</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43.2421875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44.4140625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45.64453125</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>46.93359375</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2472,7 +2060,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$96</c:f>
+              <c:f>Choke!$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2483,7 +2071,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:f>Choke!$I$42:$AB$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2552,70 +2140,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$96:$V$96</c:f>
+              <c:f>Choke!$I$43:$AB$43</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.764404296875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0966796875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.67578125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8359375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2631,7 +2159,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$97</c:f>
+              <c:f>Choke!$H$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2642,7 +2170,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:f>Choke!$I$42:$AB$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2711,70 +2239,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$97:$V$97</c:f>
+              <c:f>Choke!$I$44:$AB$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.843902587890625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.43603515625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.095458984375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.7841796875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.564453125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.4912109375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.4912109375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.6123046875</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.923828125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.5869140625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.1767578125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.3125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.4375</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2790,7 +2258,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$98</c:f>
+              <c:f>Choke!$H$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2801,7 +2269,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$95:$V$95</c:f>
+              <c:f>Choke!$I$42:$AB$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2870,70 +2338,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$98:$V$98</c:f>
+              <c:f>Choke!$I$45:$AB$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.8822021484375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.58251953125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.33837890625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.1259765625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.98193359375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.9306640625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.9306640625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.3984375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.037109375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.880859375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.705078125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.431640625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.236328125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.216796875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.171875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.53125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.8125</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2949,7 +2357,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$99</c:f>
+              <c:f>Choke!$H$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2960,7 +2368,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$95:$AQ$95</c:f>
+              <c:f>Choke!$I$42:$AW$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3077,118 +2485,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$99:$AQ$99</c:f>
+              <c:f>Choke!$I$46:$AW$46</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.9053955078125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.666595458984375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.47509765625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.310302734375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.1973876953125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.1607666015625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.15771484375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.760986328125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.49853515625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.382568359375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.2666015625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.077392578125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.943115234375</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.930908203125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.265625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.435546875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.8984375</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.7763671875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.7763671875</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.5556640625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.529296875</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.552734375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14.84375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3204,7 +2504,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$100</c:f>
+              <c:f>Choke!$H$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3215,7 +2515,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$95:$AQ$95</c:f>
+              <c:f>Choke!$I$42:$AW$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3332,118 +2632,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$100:$AQ$100</c:f>
+              <c:f>Choke!$I$47:$AW$47</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.92034912109375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.72076416015625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.5623779296875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.425048828125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.33349609375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.30419921875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29.3023681640625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.978271484375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.765869140625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.67431640625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.5791015625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.4326171875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.330078125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.32275390625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27.8173828125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.20947265625</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>26.8212890625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26.748046875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>26.7333984375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25.95703125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.90234375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.55078125</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.140625</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.08203125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.79296875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.85546875</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19.6875</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16.875</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3459,7 +2651,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$101</c:f>
+              <c:f>Choke!$H$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3470,7 +2662,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$95:$AL$95</c:f>
+              <c:f>Choke!$I$42:$AR$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="36"/>
@@ -3587,118 +2779,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$101:$AL$101</c:f>
+              <c:f>Choke!$I$48:$AR$48</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.931106567382813</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.759674072265625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.622955322265625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.50653076171875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.427490234375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34.40185546875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34.39971923828125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.1241455078125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.948974609375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.8720703125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.7908935546875</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.6669921875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.58154296875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33.572998046875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33.154296875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.667236328125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.359619140625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32.2998046875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32.291259765625</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31.6845703125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.8984375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30.64208984375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30.36865234375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30.3173828125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.47998046875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28.916015625</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.9248046875</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27.3095703125</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27.275390625</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.11328125</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.994140625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.490234375</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.19140625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19.6875</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4073,7 +3157,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$144</c:f>
+              <c:f>Choke!$B$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4084,7 +3168,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$143:$V$143</c:f>
+              <c:f>Choke!$C$102:$V$102</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4153,7 +3237,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$144:$V$144</c:f>
+              <c:f>Choke!$C$103:$V$103</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4232,7 +3316,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Choke!$B$145</c:f>
+              <c:f>Choke!$B$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4243,7 +3327,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Choke!$C$143:$Z$143</c:f>
+              <c:f>Choke!$C$102:$Z$102</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4324,7 +3408,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Choke!$C$145:$Z$145</c:f>
+              <c:f>Choke!$C$104:$Z$104</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4713,16 +3797,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>67233</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>191960</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>80878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>560293</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194202</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4751,16 +3835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>452047</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>103333</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250901</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4775,8 +3859,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6869205" y="840441"/>
-          <a:ext cx="7847930" cy="2759127"/>
+          <a:off x="4446298" y="472110"/>
+          <a:ext cx="4691842" cy="3520108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4813,13 +3897,41 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" indent="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Упражнение показывает расчет потока через штуцер. Расчет может проводится в нескольких вариантах. Примеры вызова приведены.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Выполните следующие задания.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:pPr marL="171450" indent="-171450">
             <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>Какие параметры описывают гидравлический элемент штуцер? какие надо задать, а какие можно рассчитать?</a:t>
+            <a:t>Рассчитайте калибровочный коэффициент штуцера для заданных параметров</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4829,7 +3941,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>Постройте зависимость давления на выходе из штуцера от дебита при различных диаметрах и давлениях на входе</a:t>
+            <a:t>Постройте зависимость давления на выходе из штуцера от дебита при различных диаметрах и давлениях на входе с учетом калибровочного коэффициента. Подстройте ось дебитов вручную если необходимо.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
@@ -4865,77 +3977,60 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>давления на входе в штуцер от дебита. Для всех ли значений дебита можно построить такую зависимость?</a:t>
+            <a:t>давления на входе в штуцер от дебита  с учетом калибровочного коэффициента. Подстройте ось дебитов вручную если необходимо </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Постройте описанные выше</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> зависимости от газового фактора</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Настройте модель штуцера по известному дебиту и перепаду давления. Как изменится дебит в этом случае при уменьшении диаметра штуцера</a:t>
-          </a:r>
-          <a:endParaRPr lang="ru-RU" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Используйте функции</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>MF_p_choke_atma</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>MF_qliq_choke_sm3day</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>MF_calibr_choke_fr</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
@@ -4946,16 +4041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>538390</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280269</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>63330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4986,13 +4081,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>832402</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>110986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>339567</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>159164</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5020,6 +4115,843 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>169796</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>17396</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112955</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Группа 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08290051-AFC2-492A-8349-855F6E8CA838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14778765" y="966995"/>
+          <a:ext cx="5181600" cy="2241585"/>
+          <a:chOff x="16207513" y="824119"/>
+          <a:chExt cx="5181600" cy="2241585"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Рисунок 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EA204E-1F08-4A7C-A6F9-E92D2E21490D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16207513" y="824119"/>
+            <a:ext cx="5181600" cy="2241585"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="$AL$4">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23C8D2A-6D5A-4BE3-990E-256CD40D565E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17242839" y="2068580"/>
+            <a:ext cx="822661" cy="248851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:fld id="{DEF4C223-A930-4491-B47D-234A2BE34FB1}" type="TxLink">
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Cyr"/>
+                <a:cs typeface="Arial Cyr"/>
+              </a:rPr>
+              <a:t>Q = 50 atm</a:t>
+            </a:fld>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$AL$2">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B55930-6A79-43B8-A21B-EEF99AF2239A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16282055" y="2085145"/>
+            <a:ext cx="986680" cy="248851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:fld id="{BE629589-C801-45D0-9F9B-4A25698968FA}" type="TxLink">
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Cyr"/>
+                <a:cs typeface="Arial Cyr"/>
+              </a:rPr>
+              <a:t>Pbuf = 26 atm</a:t>
+            </a:fld>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$AL$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D478AF-1755-42AE-BEB1-00576BCB5F87}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20332251" y="2085146"/>
+            <a:ext cx="1007968" cy="248851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:fld id="{6CF60EE7-1DAD-4C9F-96CC-9584DA32B2C6}" type="TxLink">
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Cyr"/>
+                <a:cs typeface="Arial Cyr"/>
+              </a:rPr>
+              <a:t>Pline = 12 atm</a:t>
+            </a:fld>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$AL$1">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8ECB52-DFEB-44A5-A4E4-E6FE2166910A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18468664" y="1789043"/>
+            <a:ext cx="1136208" cy="248851"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:fld id="{34546ADC-568F-4B56-904D-9EBCA46BFF7B}" type="TxLink">
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Cyr"/>
+                <a:cs typeface="Arial Cyr"/>
+              </a:rPr>
+              <a:t>dchoke = 12 mm</a:t>
+            </a:fld>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>159262</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3944A57-2E1B-49AE-A6E6-E0C23ACC56BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9367630" y="488674"/>
+          <a:ext cx="5393871" cy="3511826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Вопросы</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> по упражению </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Какие параметры описывают гидравлический элемент штуцер? какие надо задать, а какие можно рассчитать?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Для всех ли значений дебита можно построить зависимость перепада давления в штуцере от дебита?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. Когда перепад давления в штуцере будет больше - для потока нефти или воды? От чего будет зависеть разница?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Дополнительное задание</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Постройте </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>зависимости перепада давления в штуцере от газового фактора для разных направлений проведения расчетов (заготовки нет на рабочем листе)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Рассчитайте как изменится дебит жидкости при изменении давления на входе в штуцер. Можно ли объянить изменение давления изменением газового фактора или обводненности?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Выноска: стрелка вверх 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D4807A-60EF-47E5-B2CB-2CDF6F7B4ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927652" y="8332304"/>
+          <a:ext cx="2749826" cy="737153"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1. Рассчитайте</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> калибровочный коэффициент для заданных параметров</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>67991</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Стрелка: влево 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1164ABFF-CFA9-4A2B-B6C9-6628C874DDF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16532087" y="5499652"/>
+          <a:ext cx="3091143" cy="1599293"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Рассчитайте</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> необходимые значения в этой таблице.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Ниже автоматом должны отобразиться графики, если все сделать правильно</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219488</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>36235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>321467</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Выноска: стрелка вверх 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEA9735-BD7D-4931-A0EE-793D14FA6B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14066457" y="9108798"/>
+          <a:ext cx="3149979" cy="1380607"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Рассчитайте</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> необходимые значения в этой таблице.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ниже автоматом должны отобразиться графики, если все сделать правильно</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5027,21 +4959,16 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
-      <sheetName val="UniflocVBA_7"/>
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
-      <definedName name="MF_calibr_choke_fr"/>
       <definedName name="MF_p_choke_atma"/>
       <definedName name="MF_qliq_choke_sm3day"/>
       <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6205,2881 +6132,1507 @@
   <sheetPr codeName="Worksheet_Choke">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AQ145"/>
+  <dimension ref="A1:AR104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143:Z145"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="32" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="51" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.14</v>
+        <v>7.17</v>
+      </c>
+      <c r="AL1" t="str">
+        <f>"dchoke = "&amp;Plin_&amp;" mm"</f>
+        <v>dchoke = 12 mm</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="AL2" t="str">
+        <f>"Pbuf = "&amp;Pbuf_&amp;" atm"</f>
+        <v>Pbuf = 26 atm</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL3" t="str">
+        <f>"Pline = "&amp;Plin_&amp;" atm"</f>
+        <v>Pline = 12 atm</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL4" t="str">
+        <f>"Q = "&amp;Qliq_&amp;" atm"</f>
+        <v>Q = 50 atm</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
-        <v>29</v>
+    <row r="7" spans="1:38" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>0.87</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="13">
+      <c r="D7" s="16"/>
+      <c r="E7" s="12">
         <f>gamma_oil_*1000</f>
         <v>870</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>38</v>
+      <c r="F7" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
-        <v>30</v>
+    <row r="8" spans="1:38" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="13">
+      <c r="D8" s="16"/>
+      <c r="E8" s="12">
         <f>gamma_wat_*1000</f>
         <v>1000</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>38</v>
+      <c r="F8" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>31</v>
+    <row r="9" spans="1:38" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>0.8</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="13">
+      <c r="D9" s="16"/>
+      <c r="E9" s="12">
         <f>gamma_gas_*1.22</f>
         <v>0.97599999999999998</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>38</v>
+      <c r="F9" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
-        <v>32</v>
+    <row r="10" spans="1:38" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="2">
         <v>80</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="13">
         <f>Rsb_/gamma_oil_</f>
         <v>91.954022988505741</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>39</v>
+      <c r="F10" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>33</v>
+    <row r="11" spans="1:38" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>80</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="13">
         <f>Rsb_/gamma_oil_</f>
         <v>91.954022988505741</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>39</v>
+      <c r="F11" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
-        <v>34</v>
+    <row r="12" spans="1:38" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>120</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f>Pb_*1.01325</f>
         <v>121.59</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
-        <v>35</v>
+    <row r="13" spans="1:38" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f>Tres_*9/5+32</f>
         <v>212</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>36</v>
+    <row r="14" spans="1:38" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="2">
         <v>1.2</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
-        <v>37</v>
+    <row r="15" spans="1:38" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10" t="s">
-        <v>30</v>
+    <row r="16" spans="1:38" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>1.2</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="13">
+      <c r="D16" s="23"/>
+      <c r="E16" s="12">
         <f>gamma_wat_kf_*1000</f>
         <v>1200</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>38</v>
+      <c r="F16" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>40</v>
+    <row r="18" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
-        <v>15</v>
+    <row r="19" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="2">
         <v>30</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="20" t="s">
-        <v>13</v>
+    <row r="21" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>70</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="19" t="s">
-        <v>14</v>
+    <row r="22" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="2">
         <v>10</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
+    <row r="23" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>50</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="29" t="str">
+    <row r="24" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2">
+        <v>26</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+    </row>
+    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="31" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="29" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,1)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:True;</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="29" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_kf_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.200;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="I29" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="21">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>4</v>
+      </c>
+      <c r="M30" s="22">
+        <v>8</v>
+      </c>
+      <c r="N30" s="2">
+        <v>10</v>
+      </c>
+      <c r="O30" s="2">
+        <v>20</v>
+      </c>
+      <c r="P30" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>40</v>
+      </c>
+      <c r="R30" s="2">
+        <v>50</v>
+      </c>
+      <c r="S30" s="2">
+        <v>60</v>
+      </c>
+      <c r="T30" s="2">
+        <v>70</v>
+      </c>
+      <c r="U30" s="2">
+        <v>80</v>
+      </c>
+      <c r="V30" s="2">
+        <v>90</v>
+      </c>
+      <c r="W30" s="2">
+        <v>100</v>
+      </c>
+      <c r="X30" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>120</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>130</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>140</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>150</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>160</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>170</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>200</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>210</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>220</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B31" s="33">
+        <f t="array" ref="B31:F32">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>24.9462890625</v>
+      </c>
+      <c r="C31" s="33">
+        <v>26</v>
+      </c>
+      <c r="D31" s="33">
+        <v>24.9462890625</v>
+      </c>
+      <c r="E31" s="33">
+        <v>30</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B32" s="34" t="str">
+        <v>Pout, atma</v>
+      </c>
+      <c r="C32" s="34" t="str">
+        <v>p_intake_atma</v>
+      </c>
+      <c r="D32" s="34" t="str">
+        <v>p_out_atma</v>
+      </c>
+      <c r="E32" s="34" t="str">
+        <v>t_choke_C</v>
+      </c>
+      <c r="F32" s="34" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="38"/>
+    </row>
+    <row r="33" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="H33" s="2">
+        <v>10</v>
+      </c>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="38"/>
+      <c r="AJ33" s="38"/>
+    </row>
+    <row r="34" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B34" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2">
+        <v>15</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+    </row>
+    <row r="35" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B35" s="33">
+        <f t="array" ref="B35:F36">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.232421875</v>
+      </c>
+      <c r="C35" s="33">
+        <v>14.232421875</v>
+      </c>
+      <c r="D35" s="33">
+        <v>12</v>
+      </c>
+      <c r="E35" s="33">
+        <v>30</v>
+      </c>
+      <c r="F35" s="33">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>20</v>
+      </c>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="38"/>
+      <c r="AI35" s="38"/>
+      <c r="AJ35" s="38"/>
+    </row>
+    <row r="36" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B36" s="34" t="str">
+        <v>Pin, atma</v>
+      </c>
+      <c r="C36" s="34" t="str">
+        <v>p_intake_atma</v>
+      </c>
+      <c r="D36" s="34" t="str">
+        <v>p_out_atma</v>
+      </c>
+      <c r="E36" s="34" t="str">
+        <v>t_choke_C</v>
+      </c>
+      <c r="F36" s="34" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="38"/>
+      <c r="AJ36" s="38"/>
+    </row>
+    <row r="37" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B39" s="35">
+        <f t="array" ref="B39:F40">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,,PVTstr_)</f>
+        <v>121.37380857929556</v>
+      </c>
+      <c r="C39" s="35">
+        <v>26</v>
+      </c>
+      <c r="D39" s="35">
+        <v>12</v>
+      </c>
+      <c r="E39" s="35">
+        <v>30</v>
+      </c>
+      <c r="F39" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B40" s="37" t="str">
+        <v>Qliq</v>
+      </c>
+      <c r="C40" s="37" t="str">
+        <v>p_intake_atma</v>
+      </c>
+      <c r="D40" s="37" t="str">
+        <v>p_out_atma</v>
+      </c>
+      <c r="E40" s="37" t="str">
+        <v>t_choke_C</v>
+      </c>
+      <c r="F40" s="37" t="str">
+        <v>c_calibr_fr</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="19">
+        <f>[1]!MF_qliq_choke_sm3day(fw_,d_choke,H48,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>170.27102752455599</v>
+      </c>
+    </row>
+    <row r="41" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="I41" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+    </row>
+    <row r="42" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="21">
+        <v>15</v>
+      </c>
+      <c r="K42" s="21">
+        <v>28</v>
+      </c>
+      <c r="L42" s="21">
+        <v>35</v>
+      </c>
+      <c r="M42" s="21">
+        <v>40</v>
+      </c>
+      <c r="N42" s="21">
+        <v>43</v>
+      </c>
+      <c r="O42" s="21">
+        <v>43.96</v>
+      </c>
+      <c r="P42" s="21">
         <v>44</v>
       </c>
+      <c r="Q42" s="21">
+        <v>53</v>
+      </c>
+      <c r="R42" s="21">
+        <v>58</v>
+      </c>
+      <c r="S42" s="21">
+        <v>60</v>
+      </c>
+      <c r="T42" s="21">
+        <v>62</v>
+      </c>
+      <c r="U42" s="21">
+        <v>65</v>
+      </c>
+      <c r="V42" s="21">
+        <v>67</v>
+      </c>
+      <c r="W42" s="21">
+        <v>67.2</v>
+      </c>
+      <c r="X42" s="21">
+        <v>76</v>
+      </c>
+      <c r="Y42" s="21">
+        <v>85</v>
+      </c>
+      <c r="Z42" s="21">
+        <v>90</v>
+      </c>
+      <c r="AA42" s="21">
+        <v>91</v>
+      </c>
+      <c r="AB42" s="21">
+        <v>91.1</v>
+      </c>
+      <c r="AC42" s="26">
+        <v>100</v>
+      </c>
+      <c r="AD42" s="26">
+        <v>110</v>
+      </c>
+      <c r="AE42" s="26">
+        <v>113</v>
+      </c>
+      <c r="AF42" s="26">
+        <v>116</v>
+      </c>
+      <c r="AG42" s="26">
+        <v>116.5</v>
+      </c>
+      <c r="AH42" s="26">
+        <v>125</v>
+      </c>
+      <c r="AI42" s="26">
+        <v>130</v>
+      </c>
+      <c r="AJ42" s="26">
+        <v>138</v>
+      </c>
+      <c r="AK42" s="26">
+        <v>142.5</v>
+      </c>
+      <c r="AL42" s="26">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="AM42" s="26">
+        <v>150</v>
+      </c>
+      <c r="AN42" s="26">
+        <v>160</v>
+      </c>
+      <c r="AO42" s="26">
+        <v>165</v>
+      </c>
+      <c r="AP42" s="26">
+        <v>168</v>
+      </c>
+      <c r="AQ42" s="26">
+        <v>170</v>
+      </c>
+      <c r="AR42" s="26">
+        <v>170.3</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2">
+    <row r="43" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B43" s="39"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="H43" s="2">
+        <v>10</v>
+      </c>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="38"/>
+      <c r="AR43" s="38"/>
+    </row>
+    <row r="44" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="H44" s="2">
+        <v>15</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="38"/>
+      <c r="AK44" s="38"/>
+      <c r="AL44" s="38"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="38"/>
+      <c r="AP44" s="38"/>
+      <c r="AQ44" s="38"/>
+      <c r="AR44" s="38"/>
+    </row>
+    <row r="45" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="H45" s="2">
+        <v>20</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38"/>
+      <c r="AE45" s="38"/>
+      <c r="AF45" s="38"/>
+      <c r="AG45" s="38"/>
+      <c r="AH45" s="38"/>
+      <c r="AI45" s="38"/>
+      <c r="AJ45" s="38"/>
+      <c r="AK45" s="38"/>
+      <c r="AL45" s="38"/>
+      <c r="AM45" s="38"/>
+      <c r="AN45" s="38"/>
+      <c r="AO45" s="38"/>
+      <c r="AP45" s="38"/>
+      <c r="AQ45" s="38"/>
+      <c r="AR45" s="38"/>
+    </row>
+    <row r="46" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="H46" s="2">
         <v>25</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="38"/>
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="38"/>
+      <c r="AH46" s="38"/>
+      <c r="AI46" s="38"/>
+      <c r="AJ46" s="38"/>
+      <c r="AK46" s="38"/>
+      <c r="AL46" s="38"/>
+      <c r="AM46" s="38"/>
+      <c r="AN46" s="38"/>
+      <c r="AO46" s="38"/>
+      <c r="AP46" s="38"/>
+      <c r="AQ46" s="38"/>
+      <c r="AR46" s="38"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2">
-        <v>26</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>23</v>
-      </c>
+    <row r="47" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="H47" s="2">
+        <v>30</v>
+      </c>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
+      <c r="AF47" s="38"/>
+      <c r="AG47" s="38"/>
+      <c r="AH47" s="38"/>
+      <c r="AI47" s="38"/>
+      <c r="AJ47" s="38"/>
+      <c r="AK47" s="38"/>
+      <c r="AL47" s="38"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="38"/>
+      <c r="AP47" s="38"/>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="38"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="23">
-        <f t="array" ref="C32:G33">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.7445068359375</v>
-      </c>
-      <c r="D32" s="23">
-        <v>26</v>
-      </c>
-      <c r="E32" s="23">
-        <v>25.7445068359375</v>
-      </c>
-      <c r="F32" s="23">
-        <v>30</v>
-      </c>
-      <c r="G32" s="23">
-        <v>1</v>
-      </c>
+    <row r="48" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="H48" s="2">
+        <v>35</v>
+      </c>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="38"/>
+      <c r="AG48" s="38"/>
+      <c r="AH48" s="38"/>
+      <c r="AI48" s="38"/>
+      <c r="AJ48" s="38"/>
+      <c r="AK48" s="38"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="23" t="str">
-        <v>Pout, atma</v>
-      </c>
-      <c r="D33" s="23" t="str">
-        <v>p_intake_atma</v>
-      </c>
-      <c r="E33" s="23" t="str">
-        <v>p_out_atma</v>
-      </c>
-      <c r="F33" s="23" t="str">
-        <v>t_choke_C</v>
-      </c>
-      <c r="G33" s="23" t="str">
-        <v>c_calibr_fr</v>
+    <row r="100" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="21">
-        <v>5</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>23</v>
+    <row r="102" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B102" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="21">
+        <v>15</v>
+      </c>
+      <c r="E102" s="21">
+        <v>28</v>
+      </c>
+      <c r="F102" s="21">
+        <v>35</v>
+      </c>
+      <c r="G102" s="21">
+        <v>40</v>
+      </c>
+      <c r="H102" s="21">
+        <v>43</v>
+      </c>
+      <c r="I102" s="21">
+        <v>43.96</v>
+      </c>
+      <c r="J102" s="21">
+        <v>44</v>
+      </c>
+      <c r="K102" s="21">
+        <v>53</v>
+      </c>
+      <c r="L102" s="21">
+        <v>58</v>
+      </c>
+      <c r="M102" s="21">
+        <v>60</v>
+      </c>
+      <c r="N102" s="21">
+        <v>62</v>
+      </c>
+      <c r="O102" s="21">
+        <v>64</v>
+      </c>
+      <c r="P102" s="21">
+        <v>65</v>
+      </c>
+      <c r="Q102" s="21">
+        <v>66</v>
+      </c>
+      <c r="R102" s="21">
+        <v>67</v>
+      </c>
+      <c r="S102" s="21">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="T102" s="21">
+        <v>70</v>
+      </c>
+      <c r="U102" s="21">
+        <v>75</v>
+      </c>
+      <c r="V102" s="21">
+        <v>78</v>
+      </c>
+      <c r="W102" s="21">
+        <v>79.5</v>
+      </c>
+      <c r="X102" s="21">
+        <v>80.2</v>
+      </c>
+      <c r="Y102" s="21">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="Z102" s="21">
+        <v>80.5</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="23">
-        <f t="array" ref="C36:G37">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>6.3916015625</v>
-      </c>
-      <c r="D36" s="23">
-        <v>6.3916015625</v>
-      </c>
-      <c r="E36" s="23">
-        <v>5</v>
-      </c>
-      <c r="F36" s="23">
-        <v>30</v>
-      </c>
-      <c r="G36" s="23">
-        <v>1</v>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B103" s="2">
+        <v>15</v>
+      </c>
+      <c r="C103" s="19">
+        <f>[1]!MF_p_choke_atma(C$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>15</v>
+      </c>
+      <c r="D103" s="19">
+        <f>[1]!MF_p_choke_atma(D$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.843902587890625</v>
+      </c>
+      <c r="E103" s="19">
+        <f>[1]!MF_p_choke_atma(E$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.43603515625</v>
+      </c>
+      <c r="F103" s="19">
+        <f>[1]!MF_p_choke_atma(F$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>14.095458984375</v>
+      </c>
+      <c r="G103" s="19">
+        <f>[1]!MF_p_choke_atma(G$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.7841796875</v>
+      </c>
+      <c r="H103" s="19">
+        <f>[1]!MF_p_choke_atma(H$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.564453125</v>
+      </c>
+      <c r="I103" s="19">
+        <f>[1]!MF_p_choke_atma(I$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.4912109375</v>
+      </c>
+      <c r="J103" s="19">
+        <f>[1]!MF_p_choke_atma(J$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>13.4912109375</v>
+      </c>
+      <c r="K103" s="19">
+        <f>[1]!MF_p_choke_atma(K$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>12.6123046875</v>
+      </c>
+      <c r="L103" s="19">
+        <f>[1]!MF_p_choke_atma(L$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.923828125</v>
+      </c>
+      <c r="M103" s="19">
+        <f>[1]!MF_p_choke_atma(M$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.5869140625</v>
+      </c>
+      <c r="N103" s="19">
+        <f>[1]!MF_p_choke_atma(N$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.1767578125</v>
+      </c>
+      <c r="O103" s="19">
+        <f>[1]!MF_p_choke_atma(O$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.6640625</v>
+      </c>
+      <c r="P103" s="19">
+        <f>[1]!MF_p_choke_atma(P$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.3125</v>
+      </c>
+      <c r="Q103" s="19">
+        <f>[1]!MF_p_choke_atma(Q$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>9.90234375</v>
+      </c>
+      <c r="R103" s="19">
+        <f>[1]!MF_p_choke_atma(R$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>8.4375</v>
+      </c>
+      <c r="S103" s="19">
+        <f>[1]!MF_p_choke_atma(S$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="T103" s="19">
+        <f>[1]!MF_p_choke_atma(T$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="U103" s="19">
+        <f>[1]!MF_p_choke_atma(U$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="V103" s="19">
+        <f>[1]!MF_p_choke_atma(V$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="W103" s="19">
+        <f>[1]!MF_p_choke_atma(W$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="X103" s="19">
+        <f>[1]!MF_p_choke_atma(X$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y103" s="19">
+        <f>[1]!MF_p_choke_atma(Y$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z103" s="19">
+        <f>[1]!MF_p_choke_atma(Z$102,fw_,d_choke,$B103,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="23" t="str">
-        <v>Pin, atma</v>
-      </c>
-      <c r="D37" s="23" t="str">
-        <v>p_intake_atma</v>
-      </c>
-      <c r="E37" s="23" t="str">
-        <v>p_out_atma</v>
-      </c>
-      <c r="F37" s="23" t="str">
-        <v>t_choke_C</v>
-      </c>
-      <c r="G37" s="23" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="7">
-        <f t="array" ref="C40:G41">[1]!MF_calibr_choke_fr(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
-        <v>0.20597524534024222</v>
-      </c>
-      <c r="D40" s="25">
-        <v>26</v>
-      </c>
-      <c r="E40" s="25">
-        <v>5</v>
-      </c>
-      <c r="F40" s="25">
-        <v>30</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0.20597524534024222</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="25" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-      <c r="D41" s="25" t="str">
-        <v>p_intake_atma</v>
-      </c>
-      <c r="E41" s="25" t="str">
-        <v>p_out_atma</v>
-      </c>
-      <c r="F41" s="25" t="str">
-        <v>t_choke_C</v>
-      </c>
-      <c r="G41" s="25" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="24">
-        <f t="array" ref="C44:G45">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C40,PVTstr_)</f>
-        <v>24.999999999999996</v>
-      </c>
-      <c r="D44" s="24">
-        <v>26</v>
-      </c>
-      <c r="E44" s="24">
-        <v>5</v>
-      </c>
-      <c r="F44" s="24">
-        <v>30</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0.20597524534024222</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="24" t="str">
-        <v>Qliq</v>
-      </c>
-      <c r="D45" s="24" t="str">
-        <v>p_intake_atma</v>
-      </c>
-      <c r="E45" s="24" t="str">
-        <v>p_out_atma</v>
-      </c>
-      <c r="F45" s="24" t="str">
-        <v>t_choke_C</v>
-      </c>
-      <c r="G45" s="24" t="str">
-        <v>c_calibr_fr</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-    </row>
-    <row r="52" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="27">
-        <v>2</v>
-      </c>
-      <c r="F52" s="2">
-        <v>4</v>
-      </c>
-      <c r="G52" s="28">
-        <v>8</v>
-      </c>
-      <c r="H52" s="2">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2">
-        <v>20</v>
-      </c>
-      <c r="J52" s="2">
-        <v>30</v>
-      </c>
-      <c r="K52" s="2">
-        <v>40</v>
-      </c>
-      <c r="L52" s="2">
-        <v>50</v>
-      </c>
-      <c r="M52" s="2">
-        <v>60</v>
-      </c>
-      <c r="N52" s="2">
-        <v>70</v>
-      </c>
-      <c r="O52" s="2">
-        <v>80</v>
-      </c>
-      <c r="P52" s="2">
-        <v>90</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>100</v>
-      </c>
-      <c r="R52" s="2">
-        <v>110</v>
-      </c>
-      <c r="S52" s="2">
-        <v>120</v>
-      </c>
-      <c r="T52" s="2">
-        <v>130</v>
-      </c>
-      <c r="U52" s="2">
-        <v>140</v>
-      </c>
-      <c r="V52" s="2">
-        <v>150</v>
-      </c>
-      <c r="W52" s="2">
-        <v>160</v>
-      </c>
-      <c r="X52" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z52" s="2">
-        <v>190</v>
-      </c>
-      <c r="AA52" s="2">
-        <v>200</v>
-      </c>
-      <c r="AB52" s="2">
-        <v>210</v>
-      </c>
-      <c r="AC52" s="2">
-        <v>220</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="25">
-        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>1</v>
-      </c>
-      <c r="D53" s="25">
-        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>1.009857177734375</v>
-      </c>
-      <c r="E53" s="25">
-        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>1.0400390625</v>
-      </c>
-      <c r="F53" s="25">
-        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>1.169921875</v>
-      </c>
-      <c r="G53" s="25">
-        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>1.857421875</v>
-      </c>
-      <c r="H53" s="25">
-        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>2.3203125</v>
-      </c>
-      <c r="I53" s="25">
-        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>4.6171875</v>
-      </c>
-      <c r="J53" s="25">
-        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>6.890625</v>
-      </c>
-      <c r="K53" s="25">
-        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.125</v>
-      </c>
-      <c r="L53" s="25">
-        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.328125</v>
-      </c>
-      <c r="M53" s="25">
-        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.5</v>
-      </c>
-      <c r="N53" s="25">
-        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.625</v>
-      </c>
-      <c r="O53" s="25">
-        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.71875</v>
-      </c>
-      <c r="P53" s="25">
-        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.78125</v>
-      </c>
-      <c r="Q53" s="25">
-        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.8125</v>
-      </c>
-      <c r="R53" s="25">
-        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.78125</v>
-      </c>
-      <c r="S53" s="25">
-        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.75</v>
-      </c>
-      <c r="T53" s="25">
-        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.625</v>
-      </c>
-      <c r="U53" s="25">
-        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.5</v>
-      </c>
-      <c r="V53" s="25">
-        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.375</v>
-      </c>
-      <c r="W53" s="25">
-        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.1875</v>
-      </c>
-      <c r="X53" s="25">
-        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.9375</v>
-      </c>
-      <c r="Y53" s="25">
-        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>36.6875</v>
-      </c>
-      <c r="Z53" s="25">
-        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>38.375</v>
-      </c>
-      <c r="AA53" s="25">
-        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.0625</v>
-      </c>
-      <c r="AB53" s="25">
-        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.75</v>
-      </c>
-      <c r="AC53" s="25">
-        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>43.375</v>
-      </c>
-      <c r="AD53" s="25">
-        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>44.9375</v>
-      </c>
-    </row>
-    <row r="54" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="2">
-        <v>5</v>
-      </c>
-      <c r="C54" s="25">
-        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>5</v>
-      </c>
-      <c r="D54" s="25">
-        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>5.0019979476928711</v>
-      </c>
-      <c r="E54" s="25">
-        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>5.0079917907714844</v>
-      </c>
-      <c r="F54" s="25">
-        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>5.03204345703125</v>
-      </c>
-      <c r="G54" s="25">
-        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>5.12939453125</v>
-      </c>
-      <c r="H54" s="25">
-        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>5.2032470703125</v>
-      </c>
-      <c r="I54" s="25">
-        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>5.85693359375</v>
-      </c>
-      <c r="J54" s="25">
-        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>7.099609375</v>
-      </c>
-      <c r="K54" s="25">
-        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.12109375</v>
-      </c>
-      <c r="L54" s="25">
-        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.328125</v>
-      </c>
-      <c r="M54" s="25">
-        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.49609375</v>
-      </c>
-      <c r="N54" s="25">
-        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.625</v>
-      </c>
-      <c r="O54" s="25">
-        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.734375</v>
-      </c>
-      <c r="P54" s="25">
-        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.765625</v>
-      </c>
-      <c r="Q54" s="25">
-        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.796875</v>
-      </c>
-      <c r="R54" s="25">
-        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.7890625</v>
-      </c>
-      <c r="S54" s="25">
-        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.7421875</v>
-      </c>
-      <c r="T54" s="25">
-        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.65625</v>
-      </c>
-      <c r="U54" s="25">
-        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.53125</v>
-      </c>
-      <c r="V54" s="25">
-        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.3671875</v>
-      </c>
-      <c r="W54" s="25">
-        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.203125</v>
-      </c>
-      <c r="X54" s="25">
-        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.9609375</v>
-      </c>
-      <c r="Y54" s="25">
-        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>36.71875</v>
-      </c>
-      <c r="Z54" s="25">
-        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>38.4375</v>
-      </c>
-      <c r="AA54" s="25">
-        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.078125</v>
-      </c>
-      <c r="AB54" s="25">
-        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.71875</v>
-      </c>
-      <c r="AC54" s="25">
-        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>43.359375</v>
-      </c>
-      <c r="AD54" s="25">
-        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>44.921875</v>
-      </c>
-    </row>
-    <row r="55" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2">
-        <v>10</v>
-      </c>
-      <c r="C55" s="25">
-        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10</v>
-      </c>
-      <c r="D55" s="25">
-        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.001015663146973</v>
-      </c>
-      <c r="E55" s="25">
-        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.004062652587891</v>
-      </c>
-      <c r="F55" s="25">
-        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.016250610351563</v>
-      </c>
-      <c r="G55" s="25">
-        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.06500244140625</v>
-      </c>
-      <c r="H55" s="25">
-        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.1019287109375</v>
-      </c>
-      <c r="I55" s="25">
-        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.411376953125</v>
-      </c>
-      <c r="J55" s="25">
-        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.9423828125</v>
-      </c>
-      <c r="K55" s="25">
-        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.708984375</v>
-      </c>
-      <c r="L55" s="25">
-        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.75390625</v>
-      </c>
-      <c r="M55" s="25">
-        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.08203125</v>
-      </c>
-      <c r="N55" s="25">
-        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.7421875</v>
-      </c>
-      <c r="O55" s="25">
-        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.734375</v>
-      </c>
-      <c r="P55" s="25">
-        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.765625</v>
-      </c>
-      <c r="Q55" s="25">
-        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.796875</v>
-      </c>
-      <c r="R55" s="25">
-        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.7890625</v>
-      </c>
-      <c r="S55" s="25">
-        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.7421875</v>
-      </c>
-      <c r="T55" s="25">
-        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.65625</v>
-      </c>
-      <c r="U55" s="25">
-        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.53125</v>
-      </c>
-      <c r="V55" s="25">
-        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.3671875</v>
-      </c>
-      <c r="W55" s="25">
-        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.203125</v>
-      </c>
-      <c r="X55" s="25">
-        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.9609375</v>
-      </c>
-      <c r="Y55" s="25">
-        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>36.71875</v>
-      </c>
-      <c r="Z55" s="25">
-        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>38.4375</v>
-      </c>
-      <c r="AA55" s="25">
-        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.078125</v>
-      </c>
-      <c r="AB55" s="25">
-        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.71875</v>
-      </c>
-      <c r="AC55" s="25">
-        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>43.359375</v>
-      </c>
-      <c r="AD55" s="25">
-        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>44.921875</v>
-      </c>
-    </row>
-    <row r="56" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="2">
+    <row r="104" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B104" s="2">
         <v>15</v>
       </c>
-      <c r="C56" s="25">
-        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="C104" s="19">
+        <f>[1]!MF_p_choke_atma(C$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
         <v>15</v>
       </c>
-      <c r="D56" s="25">
-        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.000686645507813</v>
-      </c>
-      <c r="E56" s="25">
-        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.00274658203125</v>
-      </c>
-      <c r="F56" s="25">
-        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.010986328125</v>
-      </c>
-      <c r="G56" s="25">
-        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.0439453125</v>
-      </c>
-      <c r="H56" s="25">
-        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.06866455078125</v>
-      </c>
-      <c r="I56" s="25">
-        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.27557373046875</v>
-      </c>
-      <c r="J56" s="25">
-        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15.62255859375</v>
-      </c>
-      <c r="K56" s="25">
-        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>16.11328125</v>
-      </c>
-      <c r="L56" s="25">
-        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>16.7578125</v>
-      </c>
-      <c r="M56" s="25">
-        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.55615234375</v>
-      </c>
-      <c r="N56" s="25">
-        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.515625</v>
-      </c>
-      <c r="O56" s="25">
-        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.6435546875</v>
-      </c>
-      <c r="P56" s="25">
-        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.9326171875</v>
-      </c>
-      <c r="Q56" s="25">
-        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.3828125</v>
-      </c>
-      <c r="R56" s="25">
-        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.994140625</v>
-      </c>
-      <c r="S56" s="25">
-        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.78125</v>
-      </c>
-      <c r="T56" s="25">
-        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.65625</v>
-      </c>
-      <c r="U56" s="25">
-        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.53125</v>
-      </c>
-      <c r="V56" s="25">
-        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.34765625</v>
-      </c>
-      <c r="W56" s="25">
-        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.1640625</v>
-      </c>
-      <c r="X56" s="25">
-        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.98046875</v>
-      </c>
-      <c r="Y56" s="25">
-        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>36.6796875</v>
-      </c>
-      <c r="Z56" s="25">
-        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>38.4375</v>
-      </c>
-      <c r="AA56" s="25">
-        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.078125</v>
-      </c>
-      <c r="AB56" s="25">
-        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.71875</v>
-      </c>
-      <c r="AC56" s="25">
-        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>43.359375</v>
-      </c>
-      <c r="AD56" s="25">
-        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B56,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>44.94140625</v>
-      </c>
-    </row>
-    <row r="57" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="2">
-        <v>20</v>
-      </c>
-      <c r="C57" s="25">
-        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20</v>
-      </c>
-      <c r="D57" s="25">
-        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.000519752502441</v>
-      </c>
-      <c r="E57" s="25">
-        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.002079010009766</v>
-      </c>
-      <c r="F57" s="25">
-        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.008316040039063</v>
-      </c>
-      <c r="G57" s="25">
-        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.03326416015625</v>
-      </c>
-      <c r="H57" s="25">
-        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.0518798828125</v>
-      </c>
-      <c r="I57" s="25">
-        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.2081298828125</v>
-      </c>
-      <c r="J57" s="25">
-        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.46875</v>
-      </c>
-      <c r="K57" s="25">
-        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.8349609375</v>
-      </c>
-      <c r="L57" s="25">
-        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.30859375</v>
-      </c>
-      <c r="M57" s="25">
-        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.89453125</v>
-      </c>
-      <c r="N57" s="25">
-        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.587890625</v>
-      </c>
-      <c r="O57" s="25">
-        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.37890625</v>
-      </c>
-      <c r="P57" s="25">
-        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.296875</v>
-      </c>
-      <c r="Q57" s="25">
-        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.3125</v>
-      </c>
-      <c r="R57" s="25">
-        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>26.4453125</v>
-      </c>
-      <c r="S57" s="25">
-        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.65625</v>
-      </c>
-      <c r="T57" s="25">
-        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.984375</v>
-      </c>
-      <c r="U57" s="25">
-        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.390625</v>
-      </c>
-      <c r="V57" s="25">
-        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.875</v>
-      </c>
-      <c r="W57" s="25">
-        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.4375</v>
-      </c>
-      <c r="X57" s="25">
-        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>35.078125</v>
-      </c>
-      <c r="Y57" s="25">
-        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>36.71875</v>
-      </c>
-      <c r="Z57" s="25">
-        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>38.4375</v>
-      </c>
-      <c r="AA57" s="25">
-        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.078125</v>
-      </c>
-      <c r="AB57" s="25">
-        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>41.71875</v>
-      </c>
-      <c r="AC57" s="25">
-        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>43.359375</v>
-      </c>
-      <c r="AD57" s="25">
-        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B57,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>44.921875</v>
-      </c>
-    </row>
-    <row r="58" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2">
-        <v>30</v>
-      </c>
-      <c r="C58" s="25">
-        <f>[1]!MF_p_choke_atma(C$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30</v>
-      </c>
-      <c r="D58" s="25">
-        <f>[1]!MF_p_choke_atma(D$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.000352263450623</v>
-      </c>
-      <c r="E58" s="25">
-        <f>[1]!MF_p_choke_atma(E$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.00140905380249</v>
-      </c>
-      <c r="F58" s="25">
-        <f>[1]!MF_p_choke_atma(F$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.005636215209961</v>
-      </c>
-      <c r="G58" s="25">
-        <f>[1]!MF_p_choke_atma(G$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.022544860839844</v>
-      </c>
-      <c r="H58" s="25">
-        <f>[1]!MF_p_choke_atma(H$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.035247802734375</v>
-      </c>
-      <c r="I58" s="25">
-        <f>[1]!MF_p_choke_atma(I$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.1409912109375</v>
-      </c>
-      <c r="J58" s="25">
-        <f>[1]!MF_p_choke_atma(J$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.31768798828125</v>
-      </c>
-      <c r="K58" s="25">
-        <f>[1]!MF_p_choke_atma(K$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.56396484375</v>
-      </c>
-      <c r="L58" s="25">
-        <f>[1]!MF_p_choke_atma(L$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.882568359375</v>
-      </c>
-      <c r="M58" s="25">
-        <f>[1]!MF_p_choke_atma(M$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.26708984375</v>
-      </c>
-      <c r="N58" s="25">
-        <f>[1]!MF_p_choke_atma(N$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.72119140625</v>
-      </c>
-      <c r="O58" s="25">
-        <f>[1]!MF_p_choke_atma(O$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.24853515625</v>
-      </c>
-      <c r="P58" s="25">
-        <f>[1]!MF_p_choke_atma(P$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.841796875</v>
-      </c>
-      <c r="Q58" s="25">
-        <f>[1]!MF_p_choke_atma(Q$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.5009765625</v>
-      </c>
-      <c r="R58" s="25">
-        <f>[1]!MF_p_choke_atma(R$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.21875</v>
-      </c>
-      <c r="S58" s="25">
-        <f>[1]!MF_p_choke_atma(S$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>35.009765625</v>
-      </c>
-      <c r="T58" s="25">
-        <f>[1]!MF_p_choke_atma(T$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>35.859375</v>
-      </c>
-      <c r="U58" s="25">
-        <f>[1]!MF_p_choke_atma(U$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>36.767578125</v>
-      </c>
-      <c r="V58" s="25">
-        <f>[1]!MF_p_choke_atma(V$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>37.734375</v>
-      </c>
-      <c r="W58" s="25">
-        <f>[1]!MF_p_choke_atma(W$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>38.73046875</v>
-      </c>
-      <c r="X58" s="25">
-        <f>[1]!MF_p_choke_atma(X$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>39.78515625</v>
-      </c>
-      <c r="Y58" s="25">
-        <f>[1]!MF_p_choke_atma(Y$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>40.8984375</v>
-      </c>
-      <c r="Z58" s="25">
-        <f>[1]!MF_p_choke_atma(Z$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>42.041015625</v>
-      </c>
-      <c r="AA58" s="25">
-        <f>[1]!MF_p_choke_atma(AA$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>43.2421875</v>
-      </c>
-      <c r="AB58" s="25">
-        <f>[1]!MF_p_choke_atma(AB$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>44.4140625</v>
-      </c>
-      <c r="AC58" s="25">
-        <f>[1]!MF_p_choke_atma(AC$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>45.64453125</v>
-      </c>
-      <c r="AD58" s="25">
-        <f>[1]!MF_p_choke_atma(AD$52,fw_,d_choke,$B58,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>46.93359375</v>
-      </c>
-    </row>
-    <row r="59" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B93" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C93" s="25">
-        <f>[1]!MF_qliq_choke_sm3day(fw_,d_choke,B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>170.27102752455599</v>
-      </c>
-    </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="C94" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="33"/>
-    </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B95" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="2">
-        <v>0</v>
-      </c>
-      <c r="D95" s="27">
-        <v>15</v>
-      </c>
-      <c r="E95" s="27">
-        <v>28</v>
-      </c>
-      <c r="F95" s="27">
-        <v>35</v>
-      </c>
-      <c r="G95" s="27">
-        <v>40</v>
-      </c>
-      <c r="H95" s="27">
-        <v>43</v>
-      </c>
-      <c r="I95" s="27">
-        <v>43.96</v>
-      </c>
-      <c r="J95" s="27">
-        <v>44</v>
-      </c>
-      <c r="K95" s="27">
-        <v>53</v>
-      </c>
-      <c r="L95" s="27">
-        <v>58</v>
-      </c>
-      <c r="M95" s="27">
-        <v>60</v>
-      </c>
-      <c r="N95" s="27">
-        <v>62</v>
-      </c>
-      <c r="O95" s="27">
-        <v>65</v>
-      </c>
-      <c r="P95" s="27">
-        <v>67</v>
-      </c>
-      <c r="Q95" s="27">
-        <v>67.2</v>
-      </c>
-      <c r="R95" s="27">
-        <v>76</v>
-      </c>
-      <c r="S95" s="27">
-        <v>85</v>
-      </c>
-      <c r="T95" s="27">
-        <v>90</v>
-      </c>
-      <c r="U95" s="27">
-        <v>91</v>
-      </c>
-      <c r="V95" s="27">
-        <v>91.1</v>
-      </c>
-      <c r="W95" s="35">
-        <v>100</v>
-      </c>
-      <c r="X95" s="35">
-        <v>110</v>
-      </c>
-      <c r="Y95" s="35">
-        <v>113</v>
-      </c>
-      <c r="Z95" s="35">
-        <v>116</v>
-      </c>
-      <c r="AA95" s="35">
-        <v>116.5</v>
-      </c>
-      <c r="AB95" s="35">
-        <v>125</v>
-      </c>
-      <c r="AC95" s="35">
-        <v>130</v>
-      </c>
-      <c r="AD95" s="35">
-        <v>138</v>
-      </c>
-      <c r="AE95" s="35">
-        <v>142.5</v>
-      </c>
-      <c r="AF95" s="35">
-        <v>142.69999999999999</v>
-      </c>
-      <c r="AG95" s="35">
-        <v>150</v>
-      </c>
-      <c r="AH95" s="35">
-        <v>160</v>
-      </c>
-      <c r="AI95" s="35">
-        <v>165</v>
-      </c>
-      <c r="AJ95" s="35">
-        <v>168</v>
-      </c>
-      <c r="AK95" s="35">
-        <v>170</v>
-      </c>
-      <c r="AL95" s="35">
-        <v>170.3</v>
-      </c>
-      <c r="AM95" s="35"/>
-      <c r="AN95" s="35"/>
-      <c r="AO95" s="35"/>
-      <c r="AP95" s="35"/>
-      <c r="AQ95" s="35"/>
-    </row>
-    <row r="96" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B96" s="2">
-        <v>10</v>
-      </c>
-      <c r="C96" s="25">
-        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10</v>
-      </c>
-      <c r="D96" s="25">
-        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.764404296875</v>
-      </c>
-      <c r="E96" s="25">
-        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.0966796875</v>
-      </c>
-      <c r="F96" s="25">
-        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="D104" s="19">
+        <f>[1]!MF_p_choke_atma(D$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.8919677734375</v>
+      </c>
+      <c r="E104" s="19">
+        <f>[1]!MF_p_choke_atma(E$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.615478515625</v>
+      </c>
+      <c r="F104" s="19">
+        <f>[1]!MF_p_choke_atma(F$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.3865966796875</v>
+      </c>
+      <c r="G104" s="19">
+        <f>[1]!MF_p_choke_atma(G$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.183349609375</v>
+      </c>
+      <c r="H104" s="19">
+        <f>[1]!MF_p_choke_atma(H$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.0478515625</v>
+      </c>
+      <c r="I104" s="19">
+        <f>[1]!MF_p_choke_atma(I$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>14.000244140625</v>
+      </c>
+      <c r="J104" s="19">
+        <f>[1]!MF_p_choke_atma(J$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>13.99658203125</v>
+      </c>
+      <c r="K104" s="19">
+        <f>[1]!MF_p_choke_atma(K$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>13.4765625</v>
+      </c>
+      <c r="L104" s="19">
+        <f>[1]!MF_p_choke_atma(L$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>13.1103515625</v>
+      </c>
+      <c r="M104" s="19">
+        <f>[1]!MF_p_choke_atma(M$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.94189453125</v>
+      </c>
+      <c r="N104" s="19">
+        <f>[1]!MF_p_choke_atma(N$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.76611328125</v>
+      </c>
+      <c r="O104" s="19">
+        <f>[1]!MF_p_choke_atma(O$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.568359375</v>
+      </c>
+      <c r="P104" s="19">
+        <f>[1]!MF_p_choke_atma(P$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.4658203125</v>
+      </c>
+      <c r="Q104" s="19">
+        <f>[1]!MF_p_choke_atma(Q$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.36328125</v>
+      </c>
+      <c r="R104" s="19">
+        <f>[1]!MF_p_choke_atma(R$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.24609375</v>
+      </c>
+      <c r="S104" s="19">
+        <f>[1]!MF_p_choke_atma(S$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>12.2314453125</v>
+      </c>
+      <c r="T104" s="19">
+        <f>[1]!MF_p_choke_atma(T$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>11.865234375</v>
+      </c>
+      <c r="U104" s="19">
+        <f>[1]!MF_p_choke_atma(U$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>11.07421875</v>
+      </c>
+      <c r="V104" s="19">
+        <f>[1]!MF_p_choke_atma(V$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>10.3125</v>
+      </c>
+      <c r="W104" s="19">
+        <f>[1]!MF_p_choke_atma(W$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>9.7265625</v>
+      </c>
+      <c r="X104" s="19">
+        <f>[1]!MF_p_choke_atma(X$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+        <v>9.2578125</v>
+      </c>
+      <c r="Y104" s="19">
+        <f>[1]!MF_p_choke_atma(Y$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
         <v>8.4375</v>
       </c>
-      <c r="G96" s="25">
-        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>7.67578125</v>
-      </c>
-      <c r="H96" s="25">
-        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>6.8359375</v>
-      </c>
-      <c r="I96" s="25">
-        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>5.625</v>
-      </c>
-      <c r="J96" s="25">
-        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="K96" s="25">
-        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="L96" s="25">
-        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="M96" s="25">
-        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="N96" s="25">
-        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="O96" s="25">
-        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="P96" s="25">
-        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q96" s="25">
-        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="R96" s="25">
-        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="S96" s="25">
-        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="T96" s="25">
-        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="U96" s="25">
-        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="V96" s="25">
-        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="W96" s="25">
-        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="X96" s="25">
-        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="Y96" s="25">
-        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="Z96" s="25">
-        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AA96" s="25">
-        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AB96" s="25">
-        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AC96" s="25">
-        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AD96" s="25">
-        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AE96" s="25">
-        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AF96" s="25">
-        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AG96" s="25">
-        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AH96" s="25">
-        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AI96" s="25">
-        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AJ96" s="25">
-        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AK96" s="25">
-        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AL96" s="25">
-        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B96,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AM96" s="25"/>
-      <c r="AN96" s="25"/>
-      <c r="AO96" s="25"/>
-      <c r="AP96" s="25"/>
-      <c r="AQ96" s="25"/>
-    </row>
-    <row r="97" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B97" s="2">
-        <v>15</v>
-      </c>
-      <c r="C97" s="25">
-        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15</v>
-      </c>
-      <c r="D97" s="25">
-        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.843902587890625</v>
-      </c>
-      <c r="E97" s="25">
-        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.43603515625</v>
-      </c>
-      <c r="F97" s="25">
-        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.095458984375</v>
-      </c>
-      <c r="G97" s="25">
-        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.7841796875</v>
-      </c>
-      <c r="H97" s="25">
-        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.564453125</v>
-      </c>
-      <c r="I97" s="25">
-        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.4912109375</v>
-      </c>
-      <c r="J97" s="25">
-        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.4912109375</v>
-      </c>
-      <c r="K97" s="25">
-        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.6123046875</v>
-      </c>
-      <c r="L97" s="25">
-        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.923828125</v>
-      </c>
-      <c r="M97" s="25">
-        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.5869140625</v>
-      </c>
-      <c r="N97" s="25">
-        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.1767578125</v>
-      </c>
-      <c r="O97" s="25">
-        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.3125</v>
-      </c>
-      <c r="P97" s="25">
-        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>8.4375</v>
-      </c>
-      <c r="Q97" s="25">
-        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="R97" s="25">
-        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="S97" s="25">
-        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="T97" s="25">
-        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="U97" s="25">
-        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="V97" s="25">
-        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="W97" s="25">
-        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="X97" s="25">
-        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="Y97" s="25">
-        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="Z97" s="25">
-        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AA97" s="25">
-        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AB97" s="25">
-        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AC97" s="25">
-        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AD97" s="25">
-        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AE97" s="25">
-        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AF97" s="25">
-        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AG97" s="25">
-        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AH97" s="25">
-        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AI97" s="25">
-        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AJ97" s="25">
-        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AK97" s="25">
-        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AL97" s="25">
-        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B97,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AM97" s="25"/>
-      <c r="AN97" s="25"/>
-      <c r="AO97" s="25"/>
-      <c r="AP97" s="25"/>
-      <c r="AQ97" s="25"/>
-    </row>
-    <row r="98" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B98" s="2">
-        <v>20</v>
-      </c>
-      <c r="C98" s="25">
-        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20</v>
-      </c>
-      <c r="D98" s="25">
-        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.8822021484375</v>
-      </c>
-      <c r="E98" s="25">
-        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.58251953125</v>
-      </c>
-      <c r="F98" s="25">
-        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.33837890625</v>
-      </c>
-      <c r="G98" s="25">
-        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.1259765625</v>
-      </c>
-      <c r="H98" s="25">
-        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.98193359375</v>
-      </c>
-      <c r="I98" s="25">
-        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.9306640625</v>
-      </c>
-      <c r="J98" s="25">
-        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.9306640625</v>
-      </c>
-      <c r="K98" s="25">
-        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.3984375</v>
-      </c>
-      <c r="L98" s="25">
-        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>18.037109375</v>
-      </c>
-      <c r="M98" s="25">
-        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.880859375</v>
-      </c>
-      <c r="N98" s="25">
-        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.705078125</v>
-      </c>
-      <c r="O98" s="25">
-        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.431640625</v>
-      </c>
-      <c r="P98" s="25">
-        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.236328125</v>
-      </c>
-      <c r="Q98" s="25">
-        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.216796875</v>
-      </c>
-      <c r="R98" s="25">
-        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>16.171875</v>
-      </c>
-      <c r="S98" s="25">
-        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.53125</v>
-      </c>
-      <c r="T98" s="25">
-        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.8125</v>
-      </c>
-      <c r="U98" s="25">
-        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.25</v>
-      </c>
-      <c r="V98" s="25">
-        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="W98" s="25">
-        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="X98" s="25">
-        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="Y98" s="25">
-        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="Z98" s="25">
-        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AA98" s="25">
-        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AB98" s="25">
-        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AC98" s="25">
-        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AD98" s="25">
-        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AE98" s="25">
-        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AF98" s="25">
-        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AG98" s="25">
-        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AH98" s="25">
-        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AI98" s="25">
-        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AJ98" s="25">
-        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AK98" s="25">
-        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AL98" s="25">
-        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B98,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AM98" s="25"/>
-      <c r="AN98" s="25"/>
-      <c r="AO98" s="25"/>
-      <c r="AP98" s="25"/>
-      <c r="AQ98" s="25"/>
-    </row>
-    <row r="99" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B99" s="2">
-        <v>25</v>
-      </c>
-      <c r="C99" s="25">
-        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25</v>
-      </c>
-      <c r="D99" s="25">
-        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.9053955078125</v>
-      </c>
-      <c r="E99" s="25">
-        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.666595458984375</v>
-      </c>
-      <c r="F99" s="25">
-        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.47509765625</v>
-      </c>
-      <c r="G99" s="25">
-        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.310302734375</v>
-      </c>
-      <c r="H99" s="25">
-        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.1973876953125</v>
-      </c>
-      <c r="I99" s="25">
-        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.1607666015625</v>
-      </c>
-      <c r="J99" s="25">
-        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.15771484375</v>
-      </c>
-      <c r="K99" s="25">
-        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.760986328125</v>
-      </c>
-      <c r="L99" s="25">
-        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.49853515625</v>
-      </c>
-      <c r="M99" s="25">
-        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.382568359375</v>
-      </c>
-      <c r="N99" s="25">
-        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.2666015625</v>
-      </c>
-      <c r="O99" s="25">
-        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.077392578125</v>
-      </c>
-      <c r="P99" s="25">
-        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.943115234375</v>
-      </c>
-      <c r="Q99" s="25">
-        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.930908203125</v>
-      </c>
-      <c r="R99" s="25">
-        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.265625</v>
-      </c>
-      <c r="S99" s="25">
-        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.435546875</v>
-      </c>
-      <c r="T99" s="25">
-        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.8984375</v>
-      </c>
-      <c r="U99" s="25">
-        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.7763671875</v>
-      </c>
-      <c r="V99" s="25">
-        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>20.7763671875</v>
-      </c>
-      <c r="W99" s="25">
-        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.5556640625</v>
-      </c>
-      <c r="X99" s="25">
-        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>17.529296875</v>
-      </c>
-      <c r="Y99" s="25">
-        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>16.552734375</v>
-      </c>
-      <c r="Z99" s="25">
-        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.84375</v>
-      </c>
-      <c r="AA99" s="25">
-        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AB99" s="25">
-        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AC99" s="25">
-        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AD99" s="25">
-        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AE99" s="25">
-        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AF99" s="25">
-        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AG99" s="25">
-        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AH99" s="25">
-        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AI99" s="25">
-        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AJ99" s="25">
-        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AK99" s="25">
-        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AL99" s="25">
-        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B99,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AM99" s="25"/>
-      <c r="AN99" s="25"/>
-      <c r="AO99" s="25"/>
-      <c r="AP99" s="25"/>
-      <c r="AQ99" s="25"/>
-    </row>
-    <row r="100" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B100" s="2">
-        <v>30</v>
-      </c>
-      <c r="C100" s="25">
-        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30</v>
-      </c>
-      <c r="D100" s="25">
-        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.92034912109375</v>
-      </c>
-      <c r="E100" s="25">
-        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.72076416015625</v>
-      </c>
-      <c r="F100" s="25">
-        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.5623779296875</v>
-      </c>
-      <c r="G100" s="25">
-        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.425048828125</v>
-      </c>
-      <c r="H100" s="25">
-        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.33349609375</v>
-      </c>
-      <c r="I100" s="25">
-        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.30419921875</v>
-      </c>
-      <c r="J100" s="25">
-        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.3023681640625</v>
-      </c>
-      <c r="K100" s="25">
-        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.978271484375</v>
-      </c>
-      <c r="L100" s="25">
-        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.765869140625</v>
-      </c>
-      <c r="M100" s="25">
-        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.67431640625</v>
-      </c>
-      <c r="N100" s="25">
-        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.5791015625</v>
-      </c>
-      <c r="O100" s="25">
-        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.4326171875</v>
-      </c>
-      <c r="P100" s="25">
-        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.330078125</v>
-      </c>
-      <c r="Q100" s="25">
-        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.32275390625</v>
-      </c>
-      <c r="R100" s="25">
-        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.8173828125</v>
-      </c>
-      <c r="S100" s="25">
-        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.20947265625</v>
-      </c>
-      <c r="T100" s="25">
-        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>26.8212890625</v>
-      </c>
-      <c r="U100" s="25">
-        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>26.748046875</v>
-      </c>
-      <c r="V100" s="25">
-        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>26.7333984375</v>
-      </c>
-      <c r="W100" s="25">
-        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.95703125</v>
-      </c>
-      <c r="X100" s="25">
-        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.90234375</v>
-      </c>
-      <c r="Y100" s="25">
-        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.55078125</v>
-      </c>
-      <c r="Z100" s="25">
-        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.140625</v>
-      </c>
-      <c r="AA100" s="25">
-        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.08203125</v>
-      </c>
-      <c r="AB100" s="25">
-        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.79296875</v>
-      </c>
-      <c r="AC100" s="25">
-        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.85546875</v>
-      </c>
-      <c r="AD100" s="25">
-        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.6875</v>
-      </c>
-      <c r="AE100" s="25">
-        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>16.875</v>
-      </c>
-      <c r="AF100" s="25">
-        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AG100" s="25">
-        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AH100" s="25">
-        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AI100" s="25">
-        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AJ100" s="25">
-        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AK100" s="25">
-        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AL100" s="25">
-        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B100,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AM100" s="25"/>
-      <c r="AN100" s="25"/>
-      <c r="AO100" s="25"/>
-      <c r="AP100" s="25"/>
-      <c r="AQ100" s="25"/>
-    </row>
-    <row r="101" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B101" s="2">
-        <v>35</v>
-      </c>
-      <c r="C101" s="25">
-        <f>[1]!MF_p_choke_atma(C$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>35</v>
-      </c>
-      <c r="D101" s="25">
-        <f>[1]!MF_p_choke_atma(D$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.931106567382813</v>
-      </c>
-      <c r="E101" s="25">
-        <f>[1]!MF_p_choke_atma(E$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.759674072265625</v>
-      </c>
-      <c r="F101" s="25">
-        <f>[1]!MF_p_choke_atma(F$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.622955322265625</v>
-      </c>
-      <c r="G101" s="25">
-        <f>[1]!MF_p_choke_atma(G$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.50653076171875</v>
-      </c>
-      <c r="H101" s="25">
-        <f>[1]!MF_p_choke_atma(H$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.427490234375</v>
-      </c>
-      <c r="I101" s="25">
-        <f>[1]!MF_p_choke_atma(I$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.40185546875</v>
-      </c>
-      <c r="J101" s="25">
-        <f>[1]!MF_p_choke_atma(J$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.39971923828125</v>
-      </c>
-      <c r="K101" s="25">
-        <f>[1]!MF_p_choke_atma(K$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>34.1241455078125</v>
-      </c>
-      <c r="L101" s="25">
-        <f>[1]!MF_p_choke_atma(L$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.948974609375</v>
-      </c>
-      <c r="M101" s="25">
-        <f>[1]!MF_p_choke_atma(M$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.8720703125</v>
-      </c>
-      <c r="N101" s="25">
-        <f>[1]!MF_p_choke_atma(N$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.7908935546875</v>
-      </c>
-      <c r="O101" s="25">
-        <f>[1]!MF_p_choke_atma(O$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.6669921875</v>
-      </c>
-      <c r="P101" s="25">
-        <f>[1]!MF_p_choke_atma(P$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.58154296875</v>
-      </c>
-      <c r="Q101" s="25">
-        <f>[1]!MF_p_choke_atma(Q$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.572998046875</v>
-      </c>
-      <c r="R101" s="25">
-        <f>[1]!MF_p_choke_atma(R$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>33.154296875</v>
-      </c>
-      <c r="S101" s="25">
-        <f>[1]!MF_p_choke_atma(S$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.667236328125</v>
-      </c>
-      <c r="T101" s="25">
-        <f>[1]!MF_p_choke_atma(T$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.359619140625</v>
-      </c>
-      <c r="U101" s="25">
-        <f>[1]!MF_p_choke_atma(U$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.2998046875</v>
-      </c>
-      <c r="V101" s="25">
-        <f>[1]!MF_p_choke_atma(V$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>32.291259765625</v>
-      </c>
-      <c r="W101" s="25">
-        <f>[1]!MF_p_choke_atma(W$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>31.6845703125</v>
-      </c>
-      <c r="X101" s="25">
-        <f>[1]!MF_p_choke_atma(X$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.8984375</v>
-      </c>
-      <c r="Y101" s="25">
-        <f>[1]!MF_p_choke_atma(Y$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.64208984375</v>
-      </c>
-      <c r="Z101" s="25">
-        <f>[1]!MF_p_choke_atma(Z$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.36865234375</v>
-      </c>
-      <c r="AA101" s="25">
-        <f>[1]!MF_p_choke_atma(AA$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>30.3173828125</v>
-      </c>
-      <c r="AB101" s="25">
-        <f>[1]!MF_p_choke_atma(AB$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>29.47998046875</v>
-      </c>
-      <c r="AC101" s="25">
-        <f>[1]!MF_p_choke_atma(AC$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>28.916015625</v>
-      </c>
-      <c r="AD101" s="25">
-        <f>[1]!MF_p_choke_atma(AD$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.9248046875</v>
-      </c>
-      <c r="AE101" s="25">
-        <f>[1]!MF_p_choke_atma(AE$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.3095703125</v>
-      </c>
-      <c r="AF101" s="25">
-        <f>[1]!MF_p_choke_atma(AF$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>27.275390625</v>
-      </c>
-      <c r="AG101" s="25">
-        <f>[1]!MF_p_choke_atma(AG$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>26.11328125</v>
-      </c>
-      <c r="AH101" s="25">
-        <f>[1]!MF_p_choke_atma(AH$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>23.994140625</v>
-      </c>
-      <c r="AI101" s="25">
-        <f>[1]!MF_p_choke_atma(AI$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>22.490234375</v>
-      </c>
-      <c r="AJ101" s="25">
-        <f>[1]!MF_p_choke_atma(AJ$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>21.19140625</v>
-      </c>
-      <c r="AK101" s="25">
-        <f>[1]!MF_p_choke_atma(AK$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>19.6875</v>
-      </c>
-      <c r="AL101" s="25">
-        <f>[1]!MF_p_choke_atma(AL$95,fw_,d_choke,$B101,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="AM101" s="25"/>
-      <c r="AN101" s="25"/>
-      <c r="AO101" s="25"/>
-      <c r="AP101" s="25"/>
-      <c r="AQ101" s="25"/>
-    </row>
-    <row r="141" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="C141">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="143" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B143" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="27">
-        <v>15</v>
-      </c>
-      <c r="E143" s="27">
-        <v>28</v>
-      </c>
-      <c r="F143" s="27">
-        <v>35</v>
-      </c>
-      <c r="G143" s="27">
-        <v>40</v>
-      </c>
-      <c r="H143" s="27">
-        <v>43</v>
-      </c>
-      <c r="I143" s="27">
-        <v>43.96</v>
-      </c>
-      <c r="J143" s="27">
-        <v>44</v>
-      </c>
-      <c r="K143" s="27">
-        <v>53</v>
-      </c>
-      <c r="L143" s="27">
-        <v>58</v>
-      </c>
-      <c r="M143" s="27">
-        <v>60</v>
-      </c>
-      <c r="N143" s="27">
-        <v>62</v>
-      </c>
-      <c r="O143" s="27">
-        <v>64</v>
-      </c>
-      <c r="P143" s="27">
-        <v>65</v>
-      </c>
-      <c r="Q143" s="27">
-        <v>66</v>
-      </c>
-      <c r="R143" s="27">
-        <v>67</v>
-      </c>
-      <c r="S143" s="27">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="T143" s="27">
-        <v>70</v>
-      </c>
-      <c r="U143" s="27">
-        <v>75</v>
-      </c>
-      <c r="V143" s="27">
-        <v>78</v>
-      </c>
-      <c r="W143" s="27">
-        <v>79.5</v>
-      </c>
-      <c r="X143" s="27">
-        <v>80.2</v>
-      </c>
-      <c r="Y143" s="27">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="Z143" s="27">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="144" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B144" s="2">
-        <v>15</v>
-      </c>
-      <c r="C144" s="25">
-        <f>[1]!MF_p_choke_atma(C$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>15</v>
-      </c>
-      <c r="D144" s="25">
-        <f>[1]!MF_p_choke_atma(D$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.843902587890625</v>
-      </c>
-      <c r="E144" s="25">
-        <f>[1]!MF_p_choke_atma(E$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.43603515625</v>
-      </c>
-      <c r="F144" s="25">
-        <f>[1]!MF_p_choke_atma(F$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.095458984375</v>
-      </c>
-      <c r="G144" s="25">
-        <f>[1]!MF_p_choke_atma(G$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.7841796875</v>
-      </c>
-      <c r="H144" s="25">
-        <f>[1]!MF_p_choke_atma(H$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.564453125</v>
-      </c>
-      <c r="I144" s="25">
-        <f>[1]!MF_p_choke_atma(I$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.4912109375</v>
-      </c>
-      <c r="J144" s="25">
-        <f>[1]!MF_p_choke_atma(J$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>13.4912109375</v>
-      </c>
-      <c r="K144" s="25">
-        <f>[1]!MF_p_choke_atma(K$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>12.6123046875</v>
-      </c>
-      <c r="L144" s="25">
-        <f>[1]!MF_p_choke_atma(L$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.923828125</v>
-      </c>
-      <c r="M144" s="25">
-        <f>[1]!MF_p_choke_atma(M$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.5869140625</v>
-      </c>
-      <c r="N144" s="25">
-        <f>[1]!MF_p_choke_atma(N$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>11.1767578125</v>
-      </c>
-      <c r="O144" s="25">
-        <f>[1]!MF_p_choke_atma(O$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.6640625</v>
-      </c>
-      <c r="P144" s="25">
-        <f>[1]!MF_p_choke_atma(P$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>10.3125</v>
-      </c>
-      <c r="Q144" s="25">
-        <f>[1]!MF_p_choke_atma(Q$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>9.90234375</v>
-      </c>
-      <c r="R144" s="25">
-        <f>[1]!MF_p_choke_atma(R$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>8.4375</v>
-      </c>
-      <c r="S144" s="25">
-        <f>[1]!MF_p_choke_atma(S$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="T144" s="25">
-        <f>[1]!MF_p_choke_atma(T$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="U144" s="25">
-        <f>[1]!MF_p_choke_atma(U$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="V144" s="25">
-        <f>[1]!MF_p_choke_atma(V$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="W144" s="25">
-        <f>[1]!MF_p_choke_atma(W$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="X144" s="25">
-        <f>[1]!MF_p_choke_atma(X$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="Y144" s="25">
-        <f>[1]!MF_p_choke_atma(Y$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-      <c r="Z144" s="25">
-        <f>[1]!MF_p_choke_atma(Z$143,fw_,d_choke,$B144,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="145" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B145" s="2">
-        <v>15</v>
-      </c>
-      <c r="C145" s="25">
-        <f>[1]!MF_p_choke_atma(C$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>15</v>
-      </c>
-      <c r="D145" s="25">
-        <f>[1]!MF_p_choke_atma(D$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>14.8919677734375</v>
-      </c>
-      <c r="E145" s="25">
-        <f>[1]!MF_p_choke_atma(E$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>14.615478515625</v>
-      </c>
-      <c r="F145" s="25">
-        <f>[1]!MF_p_choke_atma(F$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>14.3865966796875</v>
-      </c>
-      <c r="G145" s="25">
-        <f>[1]!MF_p_choke_atma(G$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>14.183349609375</v>
-      </c>
-      <c r="H145" s="25">
-        <f>[1]!MF_p_choke_atma(H$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>14.0478515625</v>
-      </c>
-      <c r="I145" s="25">
-        <f>[1]!MF_p_choke_atma(I$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>14.000244140625</v>
-      </c>
-      <c r="J145" s="25">
-        <f>[1]!MF_p_choke_atma(J$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>13.99658203125</v>
-      </c>
-      <c r="K145" s="25">
-        <f>[1]!MF_p_choke_atma(K$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>13.4765625</v>
-      </c>
-      <c r="L145" s="25">
-        <f>[1]!MF_p_choke_atma(L$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>13.1103515625</v>
-      </c>
-      <c r="M145" s="25">
-        <f>[1]!MF_p_choke_atma(M$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>12.94189453125</v>
-      </c>
-      <c r="N145" s="25">
-        <f>[1]!MF_p_choke_atma(N$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>12.76611328125</v>
-      </c>
-      <c r="O145" s="25">
-        <f>[1]!MF_p_choke_atma(O$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>12.568359375</v>
-      </c>
-      <c r="P145" s="25">
-        <f>[1]!MF_p_choke_atma(P$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>12.4658203125</v>
-      </c>
-      <c r="Q145" s="25">
-        <f>[1]!MF_p_choke_atma(Q$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>12.36328125</v>
-      </c>
-      <c r="R145" s="25">
-        <f>[1]!MF_p_choke_atma(R$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>12.24609375</v>
-      </c>
-      <c r="S145" s="25">
-        <f>[1]!MF_p_choke_atma(S$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>12.2314453125</v>
-      </c>
-      <c r="T145" s="25">
-        <f>[1]!MF_p_choke_atma(T$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>11.865234375</v>
-      </c>
-      <c r="U145" s="25">
-        <f>[1]!MF_p_choke_atma(U$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>11.07421875</v>
-      </c>
-      <c r="V145" s="25">
-        <f>[1]!MF_p_choke_atma(V$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>10.3125</v>
-      </c>
-      <c r="W145" s="25">
-        <f>[1]!MF_p_choke_atma(W$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>9.7265625</v>
-      </c>
-      <c r="X145" s="25">
-        <f>[1]!MF_p_choke_atma(X$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>9.2578125</v>
-      </c>
-      <c r="Y145" s="25">
-        <f>[1]!MF_p_choke_atma(Y$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
-        <v>8.4375</v>
-      </c>
-      <c r="Z145" s="25">
-        <f>[1]!MF_p_choke_atma(Z$143,fw_,d_choke,$B145,1,d_pipe,T_choke,cf_,PVTstr_)</f>
+      <c r="Z104" s="19">
+        <f>[1]!MF_p_choke_atma(Z$102,fw_,d_choke,$B104,1,d_pipe,T_choke,cf_,PVTstr_)</f>
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C51:N51"/>
-    <mergeCell ref="C94:N94"/>
+    <mergeCell ref="I29:T29"/>
+    <mergeCell ref="I41:T41"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exercises/ex040.MF_choke.xlsx
+++ b/exercises/ex040.MF_choke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1C97AD-B6CA-49E5-9524-27D1D4F2B2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0184440B-3062-474B-A2F5-F9A2508D63D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="660" windowWidth="27990" windowHeight="19740" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choke" sheetId="118" r:id="rId1"/>
@@ -624,12 +624,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -726,6 +726,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -738,7 +749,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,12 +821,6 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -834,6 +839,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4225,7 +4242,8 @@
                 <a:latin typeface="Arial Cyr"/>
                 <a:cs typeface="Arial Cyr"/>
               </a:rPr>
-              <a:t>Q = 50 atm</a:t>
+              <a:pPr/>
+              <a:t>Q = 10 atm</a:t>
             </a:fld>
             <a:endParaRPr lang="ru-RU" sz="1100"/>
           </a:p>
@@ -4280,6 +4298,7 @@
                 <a:latin typeface="Arial Cyr"/>
                 <a:cs typeface="Arial Cyr"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>Pbuf = 26 atm</a:t>
             </a:fld>
             <a:endParaRPr lang="ru-RU" sz="1100"/>
@@ -4335,6 +4354,7 @@
                 <a:latin typeface="Arial Cyr"/>
                 <a:cs typeface="Arial Cyr"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>Pline = 12 atm</a:t>
             </a:fld>
             <a:endParaRPr lang="ru-RU" sz="1100"/>
@@ -4390,6 +4410,7 @@
                 <a:latin typeface="Arial Cyr"/>
                 <a:cs typeface="Arial Cyr"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>dchoke = 12 mm</a:t>
             </a:fld>
             <a:endParaRPr lang="ru-RU" sz="1100"/>
@@ -4673,13 +4694,97 @@
             </a:rPr>
             <a:t>Рассчитайте как изменится дебит жидкости при изменении давления на входе в штуцер. Можно ли объянить изменение давления изменением газового фактора или обводненности?</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" indent="-171450">
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
             <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Расчитайте работу штуцера для потока газа. Установите </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gas_only=True </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>для </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PVT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>строки для проведения расчета. Как изменится перепад давления для газа по сравнению с ГЖС?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4964,7 +5069,7 @@
     <definedNames>
       <definedName name="getUFVersion"/>
       <definedName name="MF_p_choke_atma"/>
-      <definedName name="MF_qliq_choke_sm3day"/>
+      <definedName name="MF_q_choke_sm3day"/>
       <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
@@ -6135,7 +6240,7 @@
   <dimension ref="A1:AR104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6185,7 +6290,7 @@
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL4" t="str">
         <f>"Q = "&amp;Qliq_&amp;" atm"</f>
-        <v>Q = 50 atm</v>
+        <v>Q = 10 atm</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -6413,7 +6518,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>18</v>
@@ -6429,40 +6534,40 @@
       <c r="D24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
     </row>
     <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
@@ -6474,72 +6579,72 @@
       <c r="D25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="31" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F25" s="29" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,F23)</f>
         <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
       <c r="I28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
@@ -6634,267 +6739,267 @@
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B31" s="33">
-        <f t="array" ref="B31:F32">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.9462890625</v>
-      </c>
-      <c r="C31" s="33">
+      <c r="B31" s="31">
+        <f t="array" ref="B31:F32">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_,F22)</f>
+        <v>25.95953369140625</v>
+      </c>
+      <c r="C31" s="31">
         <v>26</v>
       </c>
-      <c r="D31" s="33">
-        <v>24.9462890625</v>
-      </c>
-      <c r="E31" s="33">
+      <c r="D31" s="31">
+        <v>25.95953369140625</v>
+      </c>
+      <c r="E31" s="31">
         <v>30</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="31">
         <v>1</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="33">
         <v>1</v>
       </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B32" s="34" t="str">
+      <c r="B32" s="32" t="str">
         <v>Pout, atma</v>
       </c>
-      <c r="C32" s="34" t="str">
+      <c r="C32" s="32" t="str">
         <v>p_intake_atma</v>
       </c>
-      <c r="D32" s="34" t="str">
+      <c r="D32" s="32" t="str">
         <v>p_out_atma</v>
       </c>
-      <c r="E32" s="34" t="str">
+      <c r="E32" s="32" t="str">
         <v>t_choke_C</v>
       </c>
-      <c r="F32" s="34" t="str">
+      <c r="F32" s="32" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="33">
         <v>5</v>
       </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
     </row>
     <row r="33" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H33" s="2">
+      <c r="H33" s="33">
         <v>10</v>
       </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="38"/>
-      <c r="AJ33" s="38"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
     </row>
     <row r="34" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="33">
         <v>15</v>
       </c>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="40"/>
+      <c r="AI34" s="40"/>
+      <c r="AJ34" s="40"/>
     </row>
     <row r="35" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B35" s="33">
+      <c r="B35" s="31">
         <f t="array" ref="B35:F36">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.232421875</v>
-      </c>
-      <c r="C35" s="33">
-        <v>14.232421875</v>
-      </c>
-      <c r="D35" s="33">
+        <v>12.0853271484375</v>
+      </c>
+      <c r="C35" s="31">
+        <v>12.0853271484375</v>
+      </c>
+      <c r="D35" s="31">
         <v>12</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="31">
         <v>30</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="31">
         <v>1</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="33">
         <v>20</v>
       </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="38"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="38"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="40"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
     </row>
     <row r="36" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B36" s="34" t="str">
+      <c r="B36" s="32" t="str">
         <v>Pin, atma</v>
       </c>
-      <c r="C36" s="34" t="str">
+      <c r="C36" s="32" t="str">
         <v>p_intake_atma</v>
       </c>
-      <c r="D36" s="34" t="str">
+      <c r="D36" s="32" t="str">
         <v>p_out_atma</v>
       </c>
-      <c r="E36" s="34" t="str">
+      <c r="E36" s="32" t="str">
         <v>t_choke_C</v>
       </c>
-      <c r="F36" s="34" t="str">
+      <c r="F36" s="32" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="33">
         <v>30</v>
       </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="40"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="40"/>
     </row>
     <row r="37" spans="2:44" x14ac:dyDescent="0.2">
       <c r="I37" s="3"/>
@@ -6916,62 +7021,63 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B39" s="35">
-        <f t="array" ref="B39:F40">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="B39" s="33">
+        <f t="array" ref="B39:F40">[1]!MF_q_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,,PVTstr_)</f>
         <v>121.37380857929556</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="33">
         <v>26</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>12</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="33">
         <v>30</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B40" s="37" t="str">
+      <c r="B40" s="35" t="str">
         <v>Qliq</v>
       </c>
-      <c r="C40" s="37" t="str">
+      <c r="C40" s="35" t="str">
         <v>p_intake_atma</v>
       </c>
-      <c r="D40" s="37" t="str">
+      <c r="D40" s="35" t="str">
         <v>p_out_atma</v>
       </c>
-      <c r="E40" s="37" t="str">
+      <c r="E40" s="35" t="str">
         <v>t_choke_C</v>
       </c>
-      <c r="F40" s="37" t="str">
+      <c r="F40" s="35" t="str">
         <v>c_calibr_fr</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="19">
-        <f>[1]!MF_qliq_choke_sm3day(fw_,d_choke,H48,1,d_pipe,T_choke,,PVTstr_)</f>
+      <c r="I40" s="38">
+        <f>[1]!MF_q_choke_sm3day(fw_,d_choke,H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>170.27102752455599</v>
       </c>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="I41" s="28" t="s">
+      <c r="I41" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
     </row>
     <row r="42" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -7090,260 +7196,260 @@
       </c>
     </row>
     <row r="43" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B43" s="39"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="H43" s="2">
+      <c r="B43" s="41"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
+      <c r="H43" s="33">
         <v>10</v>
       </c>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="38"/>
-      <c r="AK43" s="38"/>
-      <c r="AL43" s="38"/>
-      <c r="AM43" s="38"/>
-      <c r="AN43" s="38"/>
-      <c r="AO43" s="38"/>
-      <c r="AP43" s="38"/>
-      <c r="AQ43" s="38"/>
-      <c r="AR43" s="38"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="40"/>
+      <c r="AD43" s="40"/>
+      <c r="AE43" s="40"/>
+      <c r="AF43" s="40"/>
+      <c r="AG43" s="40"/>
+      <c r="AH43" s="40"/>
+      <c r="AI43" s="40"/>
+      <c r="AJ43" s="40"/>
+      <c r="AK43" s="40"/>
+      <c r="AL43" s="40"/>
+      <c r="AM43" s="40"/>
+      <c r="AN43" s="40"/>
+      <c r="AO43" s="40"/>
+      <c r="AP43" s="40"/>
+      <c r="AQ43" s="40"/>
+      <c r="AR43" s="40"/>
     </row>
     <row r="44" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="H44" s="2">
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="H44" s="33">
         <v>15</v>
       </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="38"/>
-      <c r="AQ44" s="38"/>
-      <c r="AR44" s="38"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="40"/>
+      <c r="AD44" s="40"/>
+      <c r="AE44" s="40"/>
+      <c r="AF44" s="40"/>
+      <c r="AG44" s="40"/>
+      <c r="AH44" s="40"/>
+      <c r="AI44" s="40"/>
+      <c r="AJ44" s="40"/>
+      <c r="AK44" s="40"/>
+      <c r="AL44" s="40"/>
+      <c r="AM44" s="40"/>
+      <c r="AN44" s="40"/>
+      <c r="AO44" s="40"/>
+      <c r="AP44" s="40"/>
+      <c r="AQ44" s="40"/>
+      <c r="AR44" s="40"/>
     </row>
     <row r="45" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H45" s="2">
+      <c r="H45" s="33">
         <v>20</v>
       </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="38"/>
-      <c r="AK45" s="38"/>
-      <c r="AL45" s="38"/>
-      <c r="AM45" s="38"/>
-      <c r="AN45" s="38"/>
-      <c r="AO45" s="38"/>
-      <c r="AP45" s="38"/>
-      <c r="AQ45" s="38"/>
-      <c r="AR45" s="38"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
+      <c r="AK45" s="40"/>
+      <c r="AL45" s="40"/>
+      <c r="AM45" s="40"/>
+      <c r="AN45" s="40"/>
+      <c r="AO45" s="40"/>
+      <c r="AP45" s="40"/>
+      <c r="AQ45" s="40"/>
+      <c r="AR45" s="40"/>
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H46" s="2">
+      <c r="H46" s="33">
         <v>25</v>
       </c>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="38"/>
-      <c r="AE46" s="38"/>
-      <c r="AF46" s="38"/>
-      <c r="AG46" s="38"/>
-      <c r="AH46" s="38"/>
-      <c r="AI46" s="38"/>
-      <c r="AJ46" s="38"/>
-      <c r="AK46" s="38"/>
-      <c r="AL46" s="38"/>
-      <c r="AM46" s="38"/>
-      <c r="AN46" s="38"/>
-      <c r="AO46" s="38"/>
-      <c r="AP46" s="38"/>
-      <c r="AQ46" s="38"/>
-      <c r="AR46" s="38"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="40"/>
+      <c r="AD46" s="40"/>
+      <c r="AE46" s="40"/>
+      <c r="AF46" s="40"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="40"/>
+      <c r="AI46" s="40"/>
+      <c r="AJ46" s="40"/>
+      <c r="AK46" s="40"/>
+      <c r="AL46" s="40"/>
+      <c r="AM46" s="40"/>
+      <c r="AN46" s="40"/>
+      <c r="AO46" s="40"/>
+      <c r="AP46" s="40"/>
+      <c r="AQ46" s="40"/>
+      <c r="AR46" s="40"/>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H47" s="2">
+      <c r="H47" s="33">
         <v>30</v>
       </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="38"/>
-      <c r="AE47" s="38"/>
-      <c r="AF47" s="38"/>
-      <c r="AG47" s="38"/>
-      <c r="AH47" s="38"/>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="38"/>
-      <c r="AK47" s="38"/>
-      <c r="AL47" s="38"/>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="38"/>
-      <c r="AO47" s="38"/>
-      <c r="AP47" s="38"/>
-      <c r="AQ47" s="38"/>
-      <c r="AR47" s="38"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40"/>
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="40"/>
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="40"/>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="40"/>
+      <c r="AN47" s="40"/>
+      <c r="AO47" s="40"/>
+      <c r="AP47" s="40"/>
+      <c r="AQ47" s="40"/>
+      <c r="AR47" s="40"/>
     </row>
     <row r="48" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H48" s="2">
+      <c r="H48" s="33">
         <v>35</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="38"/>
-      <c r="AF48" s="38"/>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="38"/>
-      <c r="AI48" s="38"/>
-      <c r="AJ48" s="38"/>
-      <c r="AK48" s="38"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="38"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="38"/>
-      <c r="AR48" s="38"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="40"/>
+      <c r="AE48" s="40"/>
+      <c r="AF48" s="40"/>
+      <c r="AG48" s="40"/>
+      <c r="AH48" s="40"/>
+      <c r="AI48" s="40"/>
+      <c r="AJ48" s="40"/>
+      <c r="AK48" s="40"/>
+      <c r="AL48" s="40"/>
+      <c r="AM48" s="40"/>
+      <c r="AN48" s="40"/>
+      <c r="AO48" s="40"/>
+      <c r="AP48" s="40"/>
+      <c r="AQ48" s="40"/>
+      <c r="AR48" s="40"/>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C100">
@@ -7630,9 +7736,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I29:T29"/>
     <mergeCell ref="I41:T41"/>
+    <mergeCell ref="I40:J40"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
